--- a/Data/AI_Tools_Table_12.xlsx
+++ b/Data/AI_Tools_Table_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\AI\Projects\AI_Compare\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B927A12-0D65-45A3-8371-8F7C4C51EEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5B584A-551F-4889-86A6-CD289A9637F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF61C1CC-D20C-43EF-A8A5-F593C3AFC645}"/>
   </bookViews>
@@ -50,12 +50,6 @@
     <t>Price</t>
   </si>
   <si>
-    <t>Local Use</t>
-  </si>
-  <si>
-    <t>Open Source</t>
-  </si>
-  <si>
     <t>IDE Integration</t>
   </si>
   <si>
@@ -72,9 +66,6 @@
   </si>
   <si>
     <t>Integration Points</t>
-  </si>
-  <si>
-    <t>Educational Suitability</t>
   </si>
   <si>
     <t>Closed IDE</t>
@@ -1173,6 +1164,15 @@
   <si>
     <t>Web
 IDE Plugin</t>
+  </si>
+  <si>
+    <t>Local</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Education</t>
   </si>
 </sst>
 </file>
@@ -1268,7 +1268,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1296,8 +1296,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1636,11 +1635,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8299C876-E514-4E33-B7D5-59991A55EAD1}">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1671,1925 +1670,1910 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="L1" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="M1" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="K1" s="3" t="s">
+      <c r="O1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="L1" s="3" t="s">
-        <v>178</v>
-      </c>
-      <c r="M1" s="6" t="s">
-        <v>179</v>
-      </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="R1" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="Q1" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="R1" s="6" t="s">
-        <v>11</v>
-      </c>
       <c r="S1" s="6" t="s">
-        <v>12</v>
+        <v>364</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="E2" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="F2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="G2" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="9" t="s">
+      <c r="I2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="K2" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="H2" s="9" t="s">
+      <c r="L2" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="M2" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="K2" s="9" t="s">
+      <c r="N2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="O2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="P2" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="Q2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="S2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="P2" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="R2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="S2" s="9" t="s">
-        <v>26</v>
-      </c>
       <c r="T2" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B3" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="F3" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="G3" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="K3" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="L3" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="K3" s="9" t="s">
+      <c r="M3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="P3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="S3" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="N3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="O3" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="P3" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q3" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="S3" s="9" t="s">
-        <v>37</v>
-      </c>
       <c r="T3" s="8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B4" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="G4" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="K4" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="L4" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="M4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="G4" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="K4" s="9" t="s">
+      <c r="N4" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="R4" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="S4" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="M4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q4" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="R4" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>47</v>
-      </c>
       <c r="T4" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C5" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>250</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>253</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="M5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="G5" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="K5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="R5" s="9" t="s">
-        <v>52</v>
-      </c>
       <c r="S5" s="9" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B6" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="F6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="G6" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>346</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="K6" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="L6" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="M6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>349</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="K6" s="9" t="s">
+      <c r="P6" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q6" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="L6" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="M6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="P6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q6" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="R6" s="9" t="s">
-        <v>61</v>
-      </c>
       <c r="S6" s="9" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="9" t="s">
+      <c r="F7" s="9" t="s">
+        <v>259</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>163</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N7" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="P7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>261</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="N7" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="O7" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="P7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="R7" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="S7" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="T7" s="8" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>341</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>342</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>344</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="L8" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="M8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="H8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="I8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="K8" s="9" t="s">
+      <c r="O8" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="P8" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="M8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N8" s="9" t="s">
+      <c r="S8" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="O8" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="P8" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q8" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="R8" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="S8" s="9" t="s">
-        <v>78</v>
-      </c>
       <c r="T8" s="8" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="H9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="L9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="M9" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="E9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="9" t="s">
+      <c r="R9" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G9" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="K9" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="M9" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q9" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="R9" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="S9" s="11"/>
       <c r="T9" s="8" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>236</v>
+      </c>
+      <c r="E10" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="D10" s="9" t="s">
-        <v>239</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>346</v>
-      </c>
       <c r="F10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>235</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="K10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="R10" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="S10" s="9" t="s">
+        <v>237</v>
+      </c>
+      <c r="T10" s="8" t="s">
         <v>238</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="S10" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>246</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>245</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="R11" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>236</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="F11" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q11" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="R11" s="9" t="s">
-        <v>93</v>
-      </c>
       <c r="S11" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>347</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>352</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="E12" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="C12" s="9" t="s">
+      <c r="F12" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K12" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L12" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="M12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="D12" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="G12" s="9" t="s">
+      <c r="P12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="9" t="s">
         <v>357</v>
       </c>
-      <c r="H12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="O12" s="9" t="s">
+      <c r="R12" s="9" t="s">
+        <v>359</v>
+      </c>
+      <c r="S12" s="9" t="s">
         <v>358</v>
       </c>
-      <c r="P12" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>360</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>362</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>361</v>
-      </c>
       <c r="T12" s="8" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>251</v>
+      </c>
+      <c r="E13" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="C13" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>254</v>
-      </c>
-      <c r="E13" s="9" t="s">
-        <v>170</v>
-      </c>
       <c r="F13" s="9" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H13" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I13" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M13" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N13" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O13" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P13" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>260</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>261</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>263</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>264</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>170</v>
-      </c>
       <c r="F14" s="9" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I14" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M14" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N14" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O14" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P14" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E15" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>170</v>
-      </c>
       <c r="F15" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I15" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="M15" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="N15" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="O15" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P15" s="9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="S15" s="13" t="s">
-        <v>270</v>
+        <v>253</v>
+      </c>
+      <c r="S15" s="12" t="s">
+        <v>267</v>
       </c>
       <c r="T15" s="8" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>164</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="E16" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="D16" s="9" t="s">
+      <c r="F16" s="9" t="s">
+        <v>225</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>228</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="K16" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="L16" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="M16" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="O16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="9" t="s">
+        <v>263</v>
+      </c>
+      <c r="R16" s="9" t="s">
+        <v>264</v>
+      </c>
+      <c r="S16" s="9" t="s">
+        <v>268</v>
+      </c>
+      <c r="T16" s="8" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>271</v>
+      </c>
+      <c r="H17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="K17" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="L17" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M17" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="R17" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="S17" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="T17" s="8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" s="9" t="s">
+        <v>266</v>
+      </c>
+      <c r="K18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="N18" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="O18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="R18" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="S18" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="T18" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>213</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="M19" s="9" t="s">
+        <v>215</v>
+      </c>
+      <c r="N19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" s="9" t="s">
+        <v>216</v>
+      </c>
+      <c r="R19" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="S19" t="s">
+        <v>207</v>
+      </c>
+      <c r="T19" s="8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>205</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M20" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q20" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="R20" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="S20" s="9" t="s">
+        <v>273</v>
+      </c>
+      <c r="T20" s="8" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>223</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21" s="9" t="s">
+        <v>254</v>
+      </c>
+      <c r="L21" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" s="9" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q21" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="R21" s="9" t="s">
+        <v>265</v>
+      </c>
+      <c r="S21" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="T21" s="8" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>196</v>
+      </c>
+      <c r="O22" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="P22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="R22" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="S22" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="T22" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C23" t="s">
+        <v>115</v>
+      </c>
+      <c r="D23" t="s">
+        <v>116</v>
+      </c>
+      <c r="E23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" t="s">
+        <v>118</v>
+      </c>
+      <c r="G23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" t="s">
+        <v>275</v>
+      </c>
+      <c r="K23" t="s">
+        <v>276</v>
+      </c>
+      <c r="L23" t="s">
+        <v>197</v>
+      </c>
+      <c r="M23" t="s">
+        <v>110</v>
+      </c>
+      <c r="N23" t="s">
+        <v>277</v>
+      </c>
+      <c r="O23" t="s">
+        <v>278</v>
+      </c>
+      <c r="P23" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>17</v>
+      </c>
+      <c r="R23" t="s">
+        <v>198</v>
+      </c>
+      <c r="S23" t="s">
+        <v>326</v>
+      </c>
+      <c r="T23" s="8" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" t="s">
+        <v>123</v>
+      </c>
+      <c r="F24" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" t="s">
+        <v>280</v>
+      </c>
+      <c r="K24" t="s">
+        <v>281</v>
+      </c>
+      <c r="L24" t="s">
+        <v>125</v>
+      </c>
+      <c r="M24" t="s">
+        <v>110</v>
+      </c>
+      <c r="N24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" t="s">
+        <v>126</v>
+      </c>
+      <c r="P24" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>31</v>
+      </c>
+      <c r="R24" t="s">
+        <v>119</v>
+      </c>
+      <c r="S24" t="s">
+        <v>127</v>
+      </c>
+      <c r="T24" s="8" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" t="s">
+        <v>283</v>
+      </c>
+      <c r="D25" t="s">
+        <v>284</v>
+      </c>
+      <c r="E25" t="s">
+        <v>285</v>
+      </c>
+      <c r="F25" t="s">
+        <v>195</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" t="s">
+        <v>286</v>
+      </c>
+      <c r="K25" t="s">
+        <v>287</v>
+      </c>
+      <c r="L25" t="s">
+        <v>192</v>
+      </c>
+      <c r="M25" t="s">
+        <v>110</v>
+      </c>
+      <c r="N25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>193</v>
+      </c>
+      <c r="R25" t="s">
+        <v>194</v>
+      </c>
+      <c r="S25" t="s">
+        <v>288</v>
+      </c>
+      <c r="T25" s="8" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C26" t="s">
+        <v>289</v>
+      </c>
+      <c r="D26" t="s">
+        <v>290</v>
+      </c>
+      <c r="E26" t="s">
+        <v>291</v>
+      </c>
+      <c r="F26" t="s">
+        <v>191</v>
+      </c>
+      <c r="G26" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s">
+        <v>186</v>
+      </c>
+      <c r="K26" t="s">
+        <v>292</v>
+      </c>
+      <c r="L26" t="s">
+        <v>187</v>
+      </c>
+      <c r="M26" t="s">
+        <v>110</v>
+      </c>
+      <c r="N26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>189</v>
+      </c>
+      <c r="R26" t="s">
+        <v>190</v>
+      </c>
+      <c r="S26" t="s">
+        <v>293</v>
+      </c>
+      <c r="T26" s="8" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="C27" t="s">
+        <v>295</v>
+      </c>
+      <c r="D27" t="s">
+        <v>296</v>
+      </c>
+      <c r="E27" t="s">
+        <v>297</v>
+      </c>
+      <c r="F27" t="s">
+        <v>298</v>
+      </c>
+      <c r="G27" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" t="s">
+        <v>299</v>
+      </c>
+      <c r="L27" t="s">
+        <v>300</v>
+      </c>
+      <c r="M27" t="s">
+        <v>110</v>
+      </c>
+      <c r="N27" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" t="s">
+        <v>17</v>
+      </c>
+      <c r="P27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>17</v>
+      </c>
+      <c r="R27" t="s">
+        <v>301</v>
+      </c>
+      <c r="S27" t="s">
+        <v>302</v>
+      </c>
+      <c r="T27" s="8" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="C28" t="s">
+        <v>303</v>
+      </c>
+      <c r="D28" t="s">
+        <v>304</v>
+      </c>
+      <c r="E28" t="s">
+        <v>305</v>
+      </c>
+      <c r="F28" t="s">
+        <v>306</v>
+      </c>
+      <c r="G28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="K28" t="s">
+        <v>307</v>
+      </c>
+      <c r="L28" t="s">
+        <v>308</v>
+      </c>
+      <c r="M28" t="s">
+        <v>110</v>
+      </c>
+      <c r="N28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" t="s">
+        <v>309</v>
+      </c>
+      <c r="P28" t="s">
+        <v>310</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>311</v>
+      </c>
+      <c r="R28" t="s">
+        <v>312</v>
+      </c>
+      <c r="S28" t="s">
+        <v>313</v>
+      </c>
+      <c r="T28" s="8" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D29" t="s">
+        <v>317</v>
+      </c>
+      <c r="E29" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" t="s">
+        <v>131</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" t="s">
+        <v>314</v>
+      </c>
+      <c r="K29" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" t="s">
+        <v>300</v>
+      </c>
+      <c r="M29" t="s">
+        <v>110</v>
+      </c>
+      <c r="N29" t="s">
+        <v>185</v>
+      </c>
+      <c r="O29" t="s">
+        <v>184</v>
+      </c>
+      <c r="P29" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>183</v>
+      </c>
+      <c r="R29" t="s">
+        <v>316</v>
+      </c>
+      <c r="S29" t="s">
+        <v>269</v>
+      </c>
+      <c r="T29" s="8" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="M30" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O30" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="P30" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="R30" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="S30" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="T30" s="8" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="C31" t="s">
         <v>169</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="D31" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>228</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J16" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="K16" s="9" t="s">
-        <v>221</v>
-      </c>
-      <c r="L16" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N16" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="O16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q16" s="9" t="s">
-        <v>266</v>
-      </c>
-      <c r="R16" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="S16" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="T16" s="8" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C17" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="9" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>364</v>
-      </c>
-      <c r="K17" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="L17" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M17" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="N17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q17" s="9" t="s">
-        <v>99</v>
-      </c>
-      <c r="R17" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="S17" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="T17" s="8" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>104</v>
-      </c>
-      <c r="F18" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G18" s="9" t="s">
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" t="s">
         <v>177</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="J18" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="K18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q18" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="R18" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="S18" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="T18" s="8" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
-        <v>152</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="K19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="L19" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="M19" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="O19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="P19" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q19" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="R19" s="9" t="s">
-        <v>211</v>
-      </c>
-      <c r="S19" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="T19" s="8" t="s">
-        <v>327</v>
-      </c>
-      <c r="U19" s="11"/>
-    </row>
-    <row r="20" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="C20" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>155</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J20" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M20" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="N20" s="9" t="s">
-        <v>205</v>
-      </c>
-      <c r="O20" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="P20" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q20" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="R20" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="S20" s="9" t="s">
-        <v>276</v>
-      </c>
-      <c r="T20" s="8" t="s">
-        <v>322</v>
-      </c>
-      <c r="U20" s="11"/>
-    </row>
-    <row r="21" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B21" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>202</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J21" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K21" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="L21" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="M21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O21" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="P21" s="9" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q21" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="R21" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="S21" s="9" t="s">
-        <v>277</v>
-      </c>
-      <c r="T21" s="8" t="s">
-        <v>321</v>
-      </c>
-      <c r="U21" s="11"/>
-    </row>
-    <row r="22" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B22" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="9" t="s">
-        <v>151</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>111</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>113</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>199</v>
-      </c>
-      <c r="O22" s="9" t="s">
-        <v>114</v>
-      </c>
-      <c r="P22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q22" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="R22" s="9" t="s">
-        <v>115</v>
-      </c>
-      <c r="S22" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="T22" s="8" t="s">
-        <v>328</v>
-      </c>
-      <c r="U22" s="11"/>
-    </row>
-    <row r="23" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="F23" s="11" t="s">
-        <v>121</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="H23" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I23" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J23" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="K23" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="L23" s="11" t="s">
-        <v>200</v>
-      </c>
-      <c r="M23" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="N23" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="O23" s="11" t="s">
-        <v>281</v>
-      </c>
-      <c r="P23" s="11" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q23" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="R23" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="S23" s="11" t="s">
-        <v>329</v>
-      </c>
-      <c r="T23" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="U23" s="11"/>
-    </row>
-    <row r="24" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="D24" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E24" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="F24" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="H24" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I24" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J24" s="11" t="s">
-        <v>283</v>
-      </c>
-      <c r="K24" s="11" t="s">
-        <v>284</v>
-      </c>
-      <c r="L24" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="M24" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="N24" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="O24" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="P24" s="11" t="s">
-        <v>285</v>
-      </c>
-      <c r="Q24" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="R24" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="S24" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="T24" s="8" t="s">
-        <v>332</v>
-      </c>
-      <c r="U24" s="11"/>
-    </row>
-    <row r="25" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>286</v>
-      </c>
-      <c r="D25" s="11" t="s">
-        <v>287</v>
-      </c>
-      <c r="E25" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="F25" s="11" t="s">
-        <v>198</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>348</v>
-      </c>
-      <c r="H25" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I25" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J25" s="11" t="s">
-        <v>289</v>
-      </c>
-      <c r="K25" s="11" t="s">
-        <v>290</v>
-      </c>
-      <c r="L25" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="M25" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="N25" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="O25" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P25" s="11" t="s">
-        <v>191</v>
-      </c>
-      <c r="Q25" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="R25" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="S25" s="11" t="s">
-        <v>291</v>
-      </c>
-      <c r="T25" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="U25" s="11"/>
-    </row>
-    <row r="26" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>292</v>
-      </c>
-      <c r="D26" s="11" t="s">
-        <v>293</v>
-      </c>
-      <c r="E26" s="11" t="s">
-        <v>294</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="G26" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J26" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="K26" s="11" t="s">
-        <v>295</v>
-      </c>
-      <c r="L26" s="11" t="s">
-        <v>190</v>
-      </c>
-      <c r="M26" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="N26" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="O26" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P26" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q26" s="11" t="s">
-        <v>192</v>
-      </c>
-      <c r="R26" s="11" t="s">
-        <v>193</v>
-      </c>
-      <c r="S26" s="11" t="s">
-        <v>296</v>
-      </c>
-      <c r="T26" s="8" t="s">
+      <c r="K31" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="L31" t="s">
+        <v>177</v>
+      </c>
+      <c r="M31" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" t="s">
+        <v>31</v>
+      </c>
+      <c r="O31" t="s">
+        <v>182</v>
+      </c>
+      <c r="P31" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q31" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="S31" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="T31" s="8" t="s">
         <v>335</v>
       </c>
-      <c r="U26" s="11"/>
-    </row>
-    <row r="27" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>297</v>
-      </c>
-      <c r="C27" s="11" t="s">
-        <v>298</v>
-      </c>
-      <c r="D27" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="E27" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="H27" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J27" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="K27" s="11" t="s">
-        <v>302</v>
-      </c>
-      <c r="L27" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="M27" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="N27" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="O27" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="P27" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="R27" s="11" t="s">
-        <v>304</v>
-      </c>
-      <c r="S27" s="11" t="s">
-        <v>305</v>
-      </c>
-      <c r="T27" s="8" t="s">
-        <v>333</v>
-      </c>
-      <c r="U27" s="11"/>
-    </row>
-    <row r="28" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>306</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>307</v>
-      </c>
-      <c r="E28" s="11" t="s">
-        <v>308</v>
-      </c>
-      <c r="F28" s="11" t="s">
-        <v>309</v>
-      </c>
-      <c r="G28" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="H28" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I28" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="K28" s="11" t="s">
-        <v>310</v>
-      </c>
-      <c r="L28" s="11" t="s">
-        <v>311</v>
-      </c>
-      <c r="M28" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="N28" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="O28" s="11" t="s">
-        <v>312</v>
-      </c>
-      <c r="P28" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="Q28" s="11" t="s">
-        <v>314</v>
-      </c>
-      <c r="R28" s="11" t="s">
-        <v>315</v>
-      </c>
-      <c r="S28" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="T28" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="U28" s="11"/>
-    </row>
-    <row r="29" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="D29" s="11" t="s">
-        <v>320</v>
-      </c>
-      <c r="E29" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="H29" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="I29" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J29" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="K29" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="L29" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="M29" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="N29" s="11" t="s">
-        <v>188</v>
-      </c>
-      <c r="O29" s="11" t="s">
-        <v>187</v>
-      </c>
-      <c r="P29" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="Q29" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="R29" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="S29" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="T29" s="8" t="s">
-        <v>336</v>
-      </c>
-      <c r="U29" s="11"/>
-    </row>
-    <row r="30" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B30" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="C30" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>137</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>182</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J30" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="K30" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="L30" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="M30" s="9" t="s">
-        <v>139</v>
-      </c>
-      <c r="N30" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="O30" s="9" t="s">
-        <v>140</v>
-      </c>
-      <c r="P30" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="Q30" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="R30" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="S30" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="T30" s="8" t="s">
-        <v>337</v>
-      </c>
-      <c r="U30" s="11"/>
-    </row>
-    <row r="31" spans="1:21" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B31" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>173</v>
-      </c>
-      <c r="E31" s="11" t="s">
-        <v>30</v>
-      </c>
-      <c r="F31" s="11"/>
-      <c r="G31" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="L31" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="M31" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N31" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="O31" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="P31" s="11" t="s">
-        <v>185</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="R31" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="S31" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="T31" s="8" t="s">
-        <v>338</v>
-      </c>
-      <c r="U31" s="11"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/Data/AI_Tools_Table_12.xlsx
+++ b/Data/AI_Tools_Table_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\AI\Projects\AI_Compare\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A5B584A-551F-4889-86A6-CD289A9637F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8247A050-9BC9-496A-B7C3-08038EBFA0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF61C1CC-D20C-43EF-A8A5-F593C3AFC645}"/>
   </bookViews>
@@ -227,9 +227,6 @@
     <t>Python</t>
   </si>
   <si>
-    <t>Free, OS</t>
-  </si>
-  <si>
     <t>No (pure chat/CLI)</t>
   </si>
   <si>
@@ -479,9 +476,6 @@
 (if policy allows cloud)</t>
   </si>
   <si>
-    <t>Very Good general-purpose option - works well with Copilot</t>
-  </si>
-  <si>
     <t>LM Studio</t>
   </si>
   <si>
@@ -672,10 +666,6 @@
 API Keys</t>
   </si>
   <si>
-    <t>Free (Public repros)
-Paid Pro</t>
-  </si>
-  <si>
     <t>Code review practice</t>
   </si>
   <si>
@@ -894,9 +884,6 @@
     <t>Test for comparison to Google, be wary of IP</t>
   </si>
   <si>
-    <t>Binary/Docker</t>
-  </si>
-  <si>
     <t>No (OpenAI-compatible API only)</t>
   </si>
   <si>
@@ -1173,6 +1160,23 @@
   </si>
   <si>
     <t>Education</t>
+  </si>
+  <si>
+    <t>Very Good general purpose option.
+works well with Copilot</t>
+  </si>
+  <si>
+    <t>Free
+OS</t>
+  </si>
+  <si>
+    <t>Free 
+(Public repros)
+Paid Pro</t>
+  </si>
+  <si>
+    <t>Binary
+Docker</t>
   </si>
 </sst>
 </file>
@@ -1638,8 +1642,8 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S1" sqref="S1"/>
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1670,34 +1674,34 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G1" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="K1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="M1" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>5</v>
@@ -1715,10 +1719,10 @@
         <v>9</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1741,7 +1745,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H2" s="9" t="s">
         <v>16</v>
@@ -1750,7 +1754,7 @@
         <v>17</v>
       </c>
       <c r="J2" s="9" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="K2" s="9" t="s">
         <v>18</v>
@@ -1780,7 +1784,7 @@
         <v>23</v>
       </c>
       <c r="T2" s="8" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1803,7 +1807,7 @@
         <v>28</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>17</v>
@@ -1812,7 +1816,7 @@
         <v>17</v>
       </c>
       <c r="J3" s="9" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="K3" s="9" t="s">
         <v>29</v>
@@ -1842,7 +1846,7 @@
         <v>34</v>
       </c>
       <c r="T3" s="8" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1865,7 +1869,7 @@
         <v>39</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H4" s="9" t="s">
         <v>31</v>
@@ -1874,7 +1878,7 @@
         <v>17</v>
       </c>
       <c r="J4" s="9" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="K4" s="9" t="s">
         <v>40</v>
@@ -1904,7 +1908,7 @@
         <v>44</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1912,13 +1916,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>45</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>46</v>
@@ -1927,16 +1931,16 @@
         <v>47</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I5" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="K5" s="9" t="s">
         <v>17</v>
@@ -1963,10 +1967,10 @@
         <v>49</v>
       </c>
       <c r="S5" s="9" t="s">
-        <v>144</v>
+        <v>361</v>
       </c>
       <c r="T5" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1989,16 +1993,16 @@
         <v>54</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="I6" s="9" t="s">
         <v>17</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="K6" s="9" t="s">
         <v>55</v>
@@ -2025,10 +2029,10 @@
         <v>58</v>
       </c>
       <c r="S6" s="9" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="T6" s="8" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2048,10 +2052,10 @@
         <v>62</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="H7" s="9" t="s">
         <v>31</v>
@@ -2060,7 +2064,7 @@
         <v>31</v>
       </c>
       <c r="J7" s="9" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K7" s="9" t="s">
         <v>17</v>
@@ -2075,22 +2079,22 @@
         <v>31</v>
       </c>
       <c r="O7" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="P7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="R7" s="9" t="s">
+      <c r="S7" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="S7" s="9" t="s">
-        <v>66</v>
-      </c>
       <c r="T7" s="8" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2098,22 +2102,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>341</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="E8" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="F8" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="F8" s="9" t="s">
-        <v>69</v>
-      </c>
       <c r="G8" s="9" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H8" s="9" t="s">
         <v>16</v>
@@ -2122,22 +2126,22 @@
         <v>17</v>
       </c>
       <c r="J8" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="K8" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="M8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="M8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="9" t="s">
+      <c r="O8" s="9" t="s">
         <v>72</v>
-      </c>
-      <c r="O8" s="9" t="s">
-        <v>73</v>
       </c>
       <c r="P8" s="9" t="s">
         <v>22</v>
@@ -2146,13 +2150,13 @@
         <v>17</v>
       </c>
       <c r="R8" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="S8" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="S8" s="9" t="s">
-        <v>75</v>
-      </c>
       <c r="T8" s="8" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2160,22 +2164,22 @@
         <v>7</v>
       </c>
       <c r="B9" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>77</v>
-      </c>
-      <c r="D9" s="9" t="s">
-        <v>78</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>42</v>
       </c>
       <c r="F9" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>79</v>
-      </c>
-      <c r="G9" s="9" t="s">
-        <v>80</v>
       </c>
       <c r="H9" s="9" t="s">
         <v>17</v>
@@ -2205,13 +2209,13 @@
         <v>31</v>
       </c>
       <c r="Q9" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="R9" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="R9" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="T9" s="8" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2219,61 +2223,61 @@
         <v>7</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="C10" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="C10" s="9" t="s">
-        <v>344</v>
-      </c>
       <c r="D10" s="9" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E10" s="9" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F10" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>232</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="K10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="9" t="s">
+        <v>212</v>
+      </c>
+      <c r="N10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="R10" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="S10" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="T10" s="8" t="s">
         <v>235</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="S10" s="9" t="s">
-        <v>237</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2281,84 +2285,84 @@
         <v>7</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>230</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>231</v>
+      </c>
+      <c r="F11" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>233</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="G11" s="9" t="s">
+        <v>242</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="K11" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="9" t="s">
-        <v>172</v>
-      </c>
-      <c r="K11" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11" s="9" t="s">
+      <c r="R11" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="R11" s="9" t="s">
-        <v>90</v>
-      </c>
       <c r="S11" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="T11" s="8" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>348</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>349</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="9" t="s">
         <v>347</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="E12" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>351</v>
-      </c>
       <c r="G12" s="9" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="H12" s="9" t="s">
         <v>31</v>
@@ -2367,13 +2371,13 @@
         <v>17</v>
       </c>
       <c r="J12" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K12" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L12" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M12" s="9" t="s">
         <v>31</v>
@@ -2382,45 +2386,45 @@
         <v>42</v>
       </c>
       <c r="O12" s="9" t="s">
+        <v>351</v>
+      </c>
+      <c r="P12" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="R12" s="9" t="s">
         <v>355</v>
       </c>
-      <c r="P12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>359</v>
-      </c>
       <c r="S12" s="9" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="T12" s="8" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E13" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F13" s="9" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H13" s="9" t="s">
         <v>31</v>
@@ -2429,13 +2433,13 @@
         <v>17</v>
       </c>
       <c r="J13" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K13" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L13" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M13" s="9" t="s">
         <v>17</v>
@@ -2450,39 +2454,39 @@
         <v>31</v>
       </c>
       <c r="Q13" s="9" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="S13" s="9" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="T13" s="8" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F14" s="9" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="H14" s="9" t="s">
         <v>31</v>
@@ -2491,13 +2495,13 @@
         <v>31</v>
       </c>
       <c r="J14" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K14" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L14" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M14" s="9" t="s">
         <v>17</v>
@@ -2512,39 +2516,39 @@
         <v>31</v>
       </c>
       <c r="Q14" s="9" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="R14" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="S14" s="9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="T14" s="8" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>166</v>
-      </c>
       <c r="E15" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F15" s="9" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H15" s="9" t="s">
         <v>31</v>
@@ -2553,13 +2557,13 @@
         <v>17</v>
       </c>
       <c r="J15" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K15" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L15" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M15" s="9" t="s">
         <v>17</v>
@@ -2574,40 +2578,40 @@
         <v>31</v>
       </c>
       <c r="Q15" s="9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="R15" s="9" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="S15" s="12" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="T15" s="8" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>162</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>164</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>166</v>
-      </c>
       <c r="E16" s="9" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F16" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>228</v>
-      </c>
       <c r="H16" s="9" t="s">
         <v>31</v>
       </c>
@@ -2615,13 +2619,13 @@
         <v>31</v>
       </c>
       <c r="J16" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="K16" s="9" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="L16" s="9" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="M16" s="9" t="s">
         <v>17</v>
@@ -2636,16 +2640,16 @@
         <v>31</v>
       </c>
       <c r="Q16" s="9" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="R16" s="9" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="S16" s="9" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="T16" s="8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2653,22 +2657,22 @@
         <v>7</v>
       </c>
       <c r="B17" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="C17" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="E17" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="9" t="s">
-        <v>95</v>
-      </c>
       <c r="G17" s="9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="H17" s="9" t="s">
         <v>17</v>
@@ -2677,16 +2681,16 @@
         <v>17</v>
       </c>
       <c r="J17" s="9" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K17" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L17" s="9" t="s">
         <v>40</v>
       </c>
       <c r="M17" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N17" s="9" t="s">
         <v>31</v>
@@ -2698,16 +2702,16 @@
         <v>31</v>
       </c>
       <c r="Q17" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="R17" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="R17" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="S17" s="9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="T17" s="8" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2715,31 +2719,31 @@
         <v>7</v>
       </c>
       <c r="B18" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C18" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="E18" s="9" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="G18" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="G18" s="9" t="s">
-        <v>174</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>103</v>
-      </c>
       <c r="J18" s="9" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="K18" s="9" t="s">
         <v>31</v>
@@ -2748,10 +2752,10 @@
         <v>40</v>
       </c>
       <c r="M18" s="9" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="N18" s="9" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="O18" s="9" t="s">
         <v>31</v>
@@ -2760,48 +2764,48 @@
         <v>31</v>
       </c>
       <c r="Q18" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R18" s="9" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="S18" s="9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="T18" s="8" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C19" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>206</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>210</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>363</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="9" t="s">
         <v>211</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>213</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>206</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>210</v>
-      </c>
-      <c r="I19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="9" t="s">
-        <v>214</v>
       </c>
       <c r="K19" s="9" t="s">
         <v>31</v>
@@ -2810,7 +2814,7 @@
         <v>40</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="N19" s="9" t="s">
         <v>31</v>
@@ -2822,39 +2826,39 @@
         <v>31</v>
       </c>
       <c r="Q19" s="9" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="R19" s="9" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="S19" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="T19" s="8" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="C20" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>153</v>
-      </c>
       <c r="D20" s="9" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H20" s="9" t="s">
         <v>17</v>
@@ -2872,51 +2876,51 @@
         <v>49</v>
       </c>
       <c r="M20" s="9" t="s">
+        <v>199</v>
+      </c>
+      <c r="N20" s="9" t="s">
+        <v>200</v>
+      </c>
+      <c r="O20" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q20" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="N20" s="9" t="s">
+      <c r="R20" s="9" t="s">
         <v>202</v>
       </c>
-      <c r="O20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="9" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q20" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="R20" s="9" t="s">
-        <v>204</v>
-      </c>
       <c r="S20" s="9" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="T20" s="8" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H21" s="9" t="s">
         <v>17</v>
@@ -2928,7 +2932,7 @@
         <v>49</v>
       </c>
       <c r="K21" s="9" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L21" s="9" t="s">
         <v>49</v>
@@ -2943,104 +2947,104 @@
         <v>17</v>
       </c>
       <c r="P21" s="9" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="Q21" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="R21" s="9" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="S21" s="9" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="T21" s="8" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="B22" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="C22" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="D22" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C22" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="D22" s="9" t="s">
+      <c r="E22" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="F22" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="G22" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="H22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="K22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="O22" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="9" t="s">
-        <v>186</v>
-      </c>
-      <c r="K22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N22" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="O22" s="9" t="s">
+      <c r="P22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="R22" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="P22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="R22" s="9" t="s">
+      <c r="S22" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="S22" s="9" t="s">
-        <v>113</v>
-      </c>
       <c r="T22" s="8" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B23" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" t="s">
         <v>114</v>
       </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
         <v>115</v>
       </c>
-      <c r="D23" t="s">
+      <c r="E23" t="s">
         <v>116</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>117</v>
       </c>
-      <c r="F23" t="s">
-        <v>118</v>
-      </c>
-      <c r="G23" t="s">
-        <v>63</v>
+      <c r="G23" s="4" t="s">
+        <v>362</v>
       </c>
       <c r="H23" t="s">
         <v>31</v>
@@ -3048,247 +3052,247 @@
       <c r="I23" t="s">
         <v>31</v>
       </c>
-      <c r="J23" t="s">
+      <c r="J23" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="K23" t="s">
+        <v>272</v>
+      </c>
+      <c r="L23" t="s">
+        <v>195</v>
+      </c>
+      <c r="M23" t="s">
+        <v>109</v>
+      </c>
+      <c r="N23" t="s">
+        <v>273</v>
+      </c>
+      <c r="O23" t="s">
+        <v>274</v>
+      </c>
+      <c r="P23" t="s">
         <v>275</v>
       </c>
-      <c r="K23" t="s">
-        <v>276</v>
-      </c>
-      <c r="L23" t="s">
-        <v>197</v>
-      </c>
-      <c r="M23" t="s">
-        <v>110</v>
-      </c>
-      <c r="N23" t="s">
-        <v>277</v>
-      </c>
-      <c r="O23" t="s">
-        <v>278</v>
-      </c>
-      <c r="P23" t="s">
-        <v>279</v>
-      </c>
       <c r="Q23" t="s">
         <v>17</v>
       </c>
       <c r="R23" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="S23" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="T23" s="8" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B24" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24" t="s">
         <v>120</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>121</v>
       </c>
-      <c r="D24" t="s">
+      <c r="E24" t="s">
         <v>122</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>123</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
+        <v>109</v>
+      </c>
+      <c r="H24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" t="s">
+        <v>276</v>
+      </c>
+      <c r="K24" t="s">
+        <v>277</v>
+      </c>
+      <c r="L24" t="s">
         <v>124</v>
       </c>
-      <c r="G24" t="s">
-        <v>110</v>
-      </c>
-      <c r="H24" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" t="s">
-        <v>31</v>
-      </c>
-      <c r="J24" t="s">
-        <v>280</v>
-      </c>
-      <c r="K24" t="s">
-        <v>281</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
+        <v>109</v>
+      </c>
+      <c r="N24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" t="s">
         <v>125</v>
       </c>
-      <c r="M24" t="s">
-        <v>110</v>
-      </c>
-      <c r="N24" t="s">
-        <v>31</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="P24" t="s">
+        <v>278</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>31</v>
+      </c>
+      <c r="R24" t="s">
+        <v>118</v>
+      </c>
+      <c r="S24" t="s">
         <v>126</v>
       </c>
-      <c r="P24" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>31</v>
-      </c>
-      <c r="R24" t="s">
-        <v>119</v>
-      </c>
-      <c r="S24" t="s">
-        <v>127</v>
-      </c>
       <c r="T24" s="8" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B25" s="11" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C25" t="s">
+        <v>279</v>
+      </c>
+      <c r="D25" t="s">
+        <v>280</v>
+      </c>
+      <c r="E25" t="s">
+        <v>281</v>
+      </c>
+      <c r="F25" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" t="s">
+        <v>282</v>
+      </c>
+      <c r="K25" t="s">
         <v>283</v>
       </c>
-      <c r="D25" t="s">
+      <c r="L25" t="s">
+        <v>190</v>
+      </c>
+      <c r="M25" t="s">
+        <v>109</v>
+      </c>
+      <c r="N25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>191</v>
+      </c>
+      <c r="R25" t="s">
+        <v>192</v>
+      </c>
+      <c r="S25" t="s">
         <v>284</v>
       </c>
-      <c r="E25" t="s">
-        <v>285</v>
-      </c>
-      <c r="F25" t="s">
-        <v>195</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="H25" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" t="s">
-        <v>31</v>
-      </c>
-      <c r="J25" t="s">
-        <v>286</v>
-      </c>
-      <c r="K25" t="s">
-        <v>287</v>
-      </c>
-      <c r="L25" t="s">
-        <v>192</v>
-      </c>
-      <c r="M25" t="s">
-        <v>110</v>
-      </c>
-      <c r="N25" t="s">
-        <v>17</v>
-      </c>
-      <c r="O25" t="s">
-        <v>17</v>
-      </c>
-      <c r="P25" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>193</v>
-      </c>
-      <c r="R25" t="s">
-        <v>194</v>
-      </c>
-      <c r="S25" t="s">
-        <v>288</v>
-      </c>
       <c r="T25" s="8" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="C26" t="s">
+        <v>285</v>
+      </c>
+      <c r="D26" t="s">
+        <v>286</v>
+      </c>
+      <c r="E26" t="s">
+        <v>287</v>
+      </c>
+      <c r="F26" t="s">
+        <v>189</v>
+      </c>
+      <c r="G26" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s">
+        <v>184</v>
+      </c>
+      <c r="K26" t="s">
+        <v>288</v>
+      </c>
+      <c r="L26" t="s">
+        <v>185</v>
+      </c>
+      <c r="M26" t="s">
+        <v>109</v>
+      </c>
+      <c r="N26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>187</v>
+      </c>
+      <c r="R26" t="s">
+        <v>188</v>
+      </c>
+      <c r="S26" t="s">
         <v>289</v>
       </c>
-      <c r="D26" t="s">
-        <v>290</v>
-      </c>
-      <c r="E26" t="s">
-        <v>291</v>
-      </c>
-      <c r="F26" t="s">
-        <v>191</v>
-      </c>
-      <c r="G26" t="s">
-        <v>110</v>
-      </c>
-      <c r="H26" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" t="s">
-        <v>186</v>
-      </c>
-      <c r="K26" t="s">
-        <v>292</v>
-      </c>
-      <c r="L26" t="s">
-        <v>187</v>
-      </c>
-      <c r="M26" t="s">
-        <v>110</v>
-      </c>
-      <c r="N26" t="s">
-        <v>17</v>
-      </c>
-      <c r="O26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P26" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>189</v>
-      </c>
-      <c r="R26" t="s">
-        <v>190</v>
-      </c>
-      <c r="S26" t="s">
-        <v>293</v>
-      </c>
       <c r="T26" s="8" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B27" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="C27" t="s">
+        <v>291</v>
+      </c>
+      <c r="D27" t="s">
+        <v>292</v>
+      </c>
+      <c r="E27" t="s">
+        <v>293</v>
+      </c>
+      <c r="F27" t="s">
         <v>294</v>
       </c>
-      <c r="C27" t="s">
-        <v>295</v>
-      </c>
-      <c r="D27" t="s">
-        <v>296</v>
-      </c>
-      <c r="E27" t="s">
-        <v>297</v>
-      </c>
-      <c r="F27" t="s">
-        <v>298</v>
-      </c>
       <c r="G27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H27" t="s">
         <v>17</v>
@@ -3300,13 +3304,13 @@
         <v>48</v>
       </c>
       <c r="K27" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="L27" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N27" t="s">
         <v>17</v>
@@ -3321,98 +3325,98 @@
         <v>17</v>
       </c>
       <c r="R27" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="S27" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="T27" s="8" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C28" t="s">
+        <v>299</v>
+      </c>
+      <c r="D28" t="s">
+        <v>300</v>
+      </c>
+      <c r="E28" t="s">
+        <v>301</v>
+      </c>
+      <c r="F28" t="s">
+        <v>302</v>
+      </c>
+      <c r="G28" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="K28" t="s">
         <v>303</v>
       </c>
-      <c r="D28" t="s">
+      <c r="L28" t="s">
         <v>304</v>
       </c>
-      <c r="E28" t="s">
+      <c r="M28" t="s">
+        <v>109</v>
+      </c>
+      <c r="N28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" t="s">
         <v>305</v>
       </c>
-      <c r="F28" t="s">
+      <c r="P28" t="s">
         <v>306</v>
       </c>
-      <c r="G28" t="s">
-        <v>110</v>
-      </c>
-      <c r="H28" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28" t="s">
-        <v>31</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>360</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="Q28" t="s">
         <v>307</v>
       </c>
-      <c r="L28" t="s">
+      <c r="R28" t="s">
         <v>308</v>
       </c>
-      <c r="M28" t="s">
-        <v>110</v>
-      </c>
-      <c r="N28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O28" t="s">
+      <c r="S28" t="s">
         <v>309</v>
       </c>
-      <c r="P28" t="s">
-        <v>310</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>311</v>
-      </c>
-      <c r="R28" t="s">
-        <v>312</v>
-      </c>
-      <c r="S28" t="s">
-        <v>313</v>
-      </c>
       <c r="T28" s="8" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B29" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29" t="s">
         <v>128</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
+        <v>313</v>
+      </c>
+      <c r="E29" t="s">
         <v>129</v>
       </c>
-      <c r="D29" t="s">
-        <v>317</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>130</v>
       </c>
-      <c r="F29" t="s">
-        <v>131</v>
-      </c>
       <c r="G29" s="4" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H29" t="s">
         <v>31</v>
@@ -3421,60 +3425,60 @@
         <v>31</v>
       </c>
       <c r="J29" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="K29" t="s">
         <v>17</v>
       </c>
       <c r="L29" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="M29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="N29" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="O29" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="P29" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="Q29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="R29" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="S29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="T29" s="8" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B30" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="C30" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="D30" s="9" t="s">
         <v>133</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>134</v>
       </c>
       <c r="E30" s="9" t="s">
         <v>27</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G30" s="9" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H30" s="9" t="s">
         <v>17</v>
@@ -3492,13 +3496,13 @@
         <v>48</v>
       </c>
       <c r="M30" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="N30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="O30" s="9" t="s">
         <v>136</v>
-      </c>
-      <c r="N30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="O30" s="9" t="s">
-        <v>137</v>
       </c>
       <c r="P30" s="9" t="s">
         <v>22</v>
@@ -3510,69 +3514,69 @@
         <v>48</v>
       </c>
       <c r="S30" s="9" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="T30" s="8" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B31" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="C31" t="s">
+        <v>167</v>
+      </c>
+      <c r="D31" s="4" t="s">
         <v>168</v>
-      </c>
-      <c r="C31" t="s">
-        <v>169</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>170</v>
       </c>
       <c r="E31" t="s">
         <v>27</v>
       </c>
       <c r="G31" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" t="s">
+        <v>175</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="L31" t="s">
+        <v>175</v>
+      </c>
+      <c r="M31" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" t="s">
+        <v>31</v>
+      </c>
+      <c r="O31" t="s">
+        <v>180</v>
+      </c>
+      <c r="P31" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q31" s="4" t="s">
         <v>179</v>
       </c>
-      <c r="H31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" t="s">
-        <v>177</v>
-      </c>
-      <c r="K31" s="4" t="s">
+      <c r="R31" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="L31" t="s">
-        <v>177</v>
-      </c>
-      <c r="M31" t="s">
-        <v>17</v>
-      </c>
-      <c r="N31" t="s">
-        <v>31</v>
-      </c>
-      <c r="O31" t="s">
-        <v>182</v>
-      </c>
-      <c r="P31" t="s">
-        <v>182</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="R31" s="4" t="s">
-        <v>180</v>
-      </c>
       <c r="S31" s="4" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="T31" s="8" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>

--- a/Data/AI_Tools_Table_12.xlsx
+++ b/Data/AI_Tools_Table_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\AI\Projects\AI_Compare\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8247A050-9BC9-496A-B7C3-08038EBFA0B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD0F946-9A18-439E-BC75-756E1CE22D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF61C1CC-D20C-43EF-A8A5-F593C3AFC645}"/>
   </bookViews>
@@ -705,13 +705,6 @@
     <t>NA</t>
   </si>
   <si>
-    <t>Claude CLI (Anthropic)</t>
-  </si>
-  <si>
-    <t>Gemini CLI
-(Google)</t>
-  </si>
-  <si>
     <t>Web Multi Use Studio</t>
   </si>
   <si>
@@ -797,9 +790,6 @@
     <t>Powerful assistant with strong long-context reasoning and code writing abilities. Includes chat and API access.</t>
   </si>
   <si>
-    <t>OpenAI Codex CLI</t>
-  </si>
-  <si>
     <t>https://help.openai.com/en/articles/11096431-openai-codex-cli-getting-started</t>
   </si>
   <si>
@@ -822,9 +812,6 @@
   </si>
   <si>
     <t>https://github.com/QwenLM/qwen-code</t>
-  </si>
-  <si>
-    <t>Qwen Code CLI</t>
   </si>
   <si>
     <t>OpenAI ChatGPT (Codex)</t>
@@ -1077,9 +1064,6 @@
     <t>Purpose</t>
   </si>
   <si>
-    <t>Amazon Q Developer</t>
-  </si>
-  <si>
     <t>Web AI Code Assistant, Desktop + IDE Plugin</t>
   </si>
   <si>
@@ -1177,13 +1161,29 @@
   <si>
     <t>Binary
 Docker</t>
+  </si>
+  <si>
+    <t>QwenCode CLI</t>
+  </si>
+  <si>
+    <t>GeminiCLI
+(Google)</t>
+  </si>
+  <si>
+    <t>OpenAI CodexCLI</t>
+  </si>
+  <si>
+    <t>ClaudeCLI (Anthropic)</t>
+  </si>
+  <si>
+    <t>AmazonQ Developer</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1198,19 +1198,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <u/>
@@ -1270,38 +1257,36 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1642,8 +1627,8 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J25" sqref="J25"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1674,1909 +1659,1911 @@
         <v>2</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="E1" s="5" t="s">
+        <v>330</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="F1" s="8" t="s">
+        <v>331</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>359</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="H1" s="9" t="s">
+        <v>353</v>
+      </c>
+      <c r="I1" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="J1" s="10" t="s">
         <v>152</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="M1" s="6" t="s">
+      <c r="M1" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>333</v>
+      <c r="S1" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="9" t="s">
+      <c r="I2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="9" t="s">
+      <c r="Q2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="9" t="s">
+      <c r="S2" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="T2" s="8" t="s">
-        <v>236</v>
+      <c r="T2" s="4" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="9" t="s">
+      <c r="H3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="9" t="s">
+      <c r="M3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="9" t="s">
+      <c r="Q3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="9" t="s">
+      <c r="S3" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="T3" s="8" t="s">
-        <v>238</v>
+      <c r="T3" s="4" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="E4" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="F4" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="H4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="9" t="s">
+      <c r="H4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="K4" s="9" t="s">
+      <c r="K4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="9" t="s">
+      <c r="L4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="9" t="s">
+      <c r="N4" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="9" t="s">
+      <c r="O4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="R4" s="9" t="s">
+      <c r="R4" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="9" t="s">
+      <c r="S4" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="8" t="s">
-        <v>237</v>
+      <c r="T4" s="4" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C5" s="9" t="s">
+      <c r="B5" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="9" t="s">
-        <v>247</v>
-      </c>
-      <c r="E5" s="9" t="s">
+      <c r="D5" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="H5" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="I5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="9" t="s">
+      <c r="H5" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="I5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="K5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="9" t="s">
+      <c r="K5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="9" t="s">
+      <c r="M5" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="9" t="s">
+      <c r="N5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" s="9" t="s">
+      <c r="Q5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="S5" s="9" t="s">
-        <v>361</v>
-      </c>
-      <c r="T5" s="8" t="s">
-        <v>239</v>
+      <c r="S5" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>342</v>
-      </c>
-      <c r="I6" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="9" t="s">
+      <c r="G6" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="H6" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="I6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="9" t="s">
+      <c r="M6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="P6" s="9" t="s">
+      <c r="P6" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="R6" s="9" t="s">
+      <c r="Q6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="S6" s="9" t="s">
+      <c r="S6" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="T6" s="8" t="s">
-        <v>240</v>
+      <c r="T6" s="4" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="9" t="s">
-        <v>256</v>
-      </c>
-      <c r="G7" s="9" t="s">
-        <v>255</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="9" t="s">
+      <c r="F7" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="H7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="K7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="9" t="s">
+      <c r="K7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7" s="9" t="s">
+      <c r="N7" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q7" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="R7" s="9" t="s">
+      <c r="P7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="S7" s="9" t="s">
+      <c r="S7" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="T7" s="8" t="s">
-        <v>227</v>
+      <c r="T7" s="4" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="9" t="s">
-        <v>337</v>
-      </c>
-      <c r="D8" s="9" t="s">
+      <c r="C8" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="F8" s="9" t="s">
+      <c r="E8" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="9" t="s">
+      <c r="I8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="M8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="9" t="s">
+      <c r="M8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="O8" s="9" t="s">
+      <c r="O8" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Q8" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="R8" s="9" t="s">
+      <c r="Q8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="S8" s="9" t="s">
+      <c r="S8" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="T8" s="8" t="s">
-        <v>228</v>
+      <c r="T8" s="4" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="F9" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="9" t="s">
+      <c r="H9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q9" s="9" t="s">
+      <c r="M9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="R9" s="9" t="s">
+      <c r="R9" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="T9" s="8" t="s">
-        <v>229</v>
+      <c r="S9" s="5"/>
+      <c r="T9" s="4" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>340</v>
-      </c>
-      <c r="D10" s="9" t="s">
+      <c r="B10" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="N10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="R10" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="S10" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="T10" s="4" t="s">
         <v>233</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="F10" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>232</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="K10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="M10" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="N10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q10" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="R10" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="S10" s="9" t="s">
-        <v>234</v>
-      </c>
-      <c r="T10" s="8" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="9" t="s">
-        <v>230</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>243</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>231</v>
-      </c>
-      <c r="F11" s="9" t="s">
+      <c r="C11" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="H11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="9" t="s">
+      <c r="G11" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="L11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P11" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11" s="9" t="s">
+      <c r="L11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="R11" s="9" t="s">
+      <c r="R11" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="S11" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="T11" s="8" t="s">
-        <v>316</v>
+      <c r="S11" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="T11" s="4" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="12" t="s">
+        <v>338</v>
+      </c>
+      <c r="C12" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="D12" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>215</v>
+      </c>
+      <c r="L12" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="M12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="P12" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="R12" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="S12" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" s="9" t="s">
-        <v>347</v>
-      </c>
-      <c r="G12" s="9" t="s">
-        <v>350</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="K12" s="9" t="s">
-        <v>215</v>
-      </c>
-      <c r="L12" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="M12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="O12" s="9" t="s">
-        <v>351</v>
-      </c>
-      <c r="P12" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q12" s="9" t="s">
-        <v>353</v>
-      </c>
-      <c r="R12" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="S12" s="9" t="s">
-        <v>354</v>
-      </c>
-      <c r="T12" s="8" t="s">
-        <v>344</v>
+      <c r="T12" s="4" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="C13" s="9" t="s">
+      <c r="B13" s="12" t="s">
+        <v>363</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D13" s="9" t="s">
-        <v>248</v>
-      </c>
-      <c r="E13" s="9" t="s">
+      <c r="D13" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E13" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F13" s="9" t="s">
-        <v>345</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>242</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="9" t="s">
+      <c r="F13" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="M13" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N13" s="9" t="s">
+      <c r="M13" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="O13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P13" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q13" s="9" t="s">
-        <v>352</v>
-      </c>
-      <c r="R13" s="9" t="s">
-        <v>249</v>
-      </c>
-      <c r="S13" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="T13" s="8" t="s">
-        <v>241</v>
+      <c r="O13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="S13" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="T13" s="4" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>258</v>
-      </c>
-      <c r="E14" s="9" t="s">
+      <c r="B14" s="12" t="s">
+        <v>362</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="E14" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="G14" s="9" t="s">
+      <c r="F14" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="G14" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="H14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="9" t="s">
+      <c r="H14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="M14" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14" s="9" t="s">
+      <c r="M14" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="O14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q14" s="9" t="s">
+      <c r="O14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="R14" s="9" t="s">
+      <c r="R14" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="S14" s="9" t="s">
-        <v>259</v>
-      </c>
-      <c r="T14" s="8" t="s">
-        <v>245</v>
+      <c r="S14" s="6" t="s">
+        <v>255</v>
+      </c>
+      <c r="T14" s="4" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="C15" s="9" t="s">
+      <c r="B15" s="12" t="s">
+        <v>361</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F15" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="9" t="s">
+      <c r="F15" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="M15" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="9" t="s">
+      <c r="M15" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="O15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P15" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q15" s="9" t="s">
-        <v>246</v>
-      </c>
-      <c r="R15" s="9" t="s">
-        <v>250</v>
-      </c>
-      <c r="S15" s="12" t="s">
-        <v>264</v>
-      </c>
-      <c r="T15" s="8" t="s">
-        <v>319</v>
+      <c r="O15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="T15" s="4" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="C16" s="9" t="s">
+      <c r="B16" s="12" t="s">
+        <v>360</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="D16" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="E16" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="F16" s="9" t="s">
-        <v>222</v>
-      </c>
-      <c r="G16" s="9" t="s">
-        <v>225</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="9" t="s">
+      <c r="F16" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="M16" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N16" s="9" t="s">
+      <c r="M16" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P16" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q16" s="9" t="s">
-        <v>260</v>
-      </c>
-      <c r="R16" s="9" t="s">
+      <c r="O16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="6" t="s">
+        <v>256</v>
+      </c>
+      <c r="R16" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="S16" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="S16" s="9" t="s">
-        <v>265</v>
-      </c>
-      <c r="T16" s="8" t="s">
-        <v>252</v>
+      <c r="T16" s="4" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="F17" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>268</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="9" t="s">
-        <v>357</v>
-      </c>
-      <c r="K17" s="9" t="s">
+      <c r="G17" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="K17" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M17" s="9" t="s">
+      <c r="M17" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="N17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P17" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q17" s="9" t="s">
+      <c r="N17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="R17" s="9" t="s">
+      <c r="R17" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="S17" s="9" t="s">
-        <v>269</v>
-      </c>
-      <c r="T17" s="8" t="s">
-        <v>318</v>
+      <c r="S17" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="T17" s="4" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="9" t="s">
+      <c r="C18" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="D18" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="F18" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="G18" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="H18" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="9" t="s">
+      <c r="H18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="J18" s="9" t="s">
+      <c r="J18" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="M18" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="N18" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="O18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="S18" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="K18" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>214</v>
-      </c>
-      <c r="N18" s="9" t="s">
-        <v>103</v>
-      </c>
-      <c r="O18" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P18" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q18" s="9" t="s">
-        <v>80</v>
-      </c>
-      <c r="R18" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="S18" s="9" t="s">
-        <v>267</v>
-      </c>
-      <c r="T18" s="8" t="s">
-        <v>317</v>
+      <c r="T18" s="4" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="F19" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>363</v>
-      </c>
-      <c r="H19" s="9" t="s">
+      <c r="G19" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="H19" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="I19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="9" t="s">
+      <c r="I19" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="K19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="9" t="s">
+      <c r="K19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="M19" s="9" t="s">
+      <c r="M19" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="N19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="P19" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q19" s="9" t="s">
+      <c r="N19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="R19" s="9" t="s">
+      <c r="R19" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="S19" t="s">
+      <c r="S19" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="T19" s="8" t="s">
-        <v>320</v>
+      <c r="T19" s="4" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="9" t="s">
+      <c r="C20" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D20" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="E20" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="F20" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="G20" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="H20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="9" t="s">
+      <c r="H20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="9" t="s">
+      <c r="K20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="M20" s="9" t="s">
+      <c r="M20" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="N20" s="9" t="s">
+      <c r="N20" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="O20" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="9" t="s">
+      <c r="O20" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="Q20" s="9" t="s">
+      <c r="Q20" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="R20" s="9" t="s">
+      <c r="R20" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="S20" s="9" t="s">
-        <v>270</v>
-      </c>
-      <c r="T20" s="8" t="s">
-        <v>315</v>
+      <c r="S20" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="10" t="s">
-        <v>221</v>
-      </c>
-      <c r="C21" s="9" t="s">
+      <c r="B21" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="E21" s="6" t="s">
+        <v>197</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>219</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>197</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>220</v>
-      </c>
-      <c r="G21" s="9" t="s">
+      <c r="G21" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="H21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="9" t="s">
+      <c r="H21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K21" s="9" t="s">
-        <v>251</v>
-      </c>
-      <c r="L21" s="9" t="s">
+      <c r="K21" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="L21" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="M21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="O21" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="P21" s="9" t="s">
+      <c r="M21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="Q21" s="9" t="s">
+      <c r="Q21" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="R21" s="9" t="s">
-        <v>262</v>
-      </c>
-      <c r="S21" s="9" t="s">
-        <v>271</v>
-      </c>
-      <c r="T21" s="8" t="s">
-        <v>314</v>
+      <c r="R21" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="S21" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="T21" s="4" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="9" t="s">
+      <c r="C22" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D22" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="E22" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="F22" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="G22" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="H22" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="9" t="s">
+      <c r="H22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="K22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="M22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N22" s="9" t="s">
+      <c r="K22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="O22" s="9" t="s">
+      <c r="O22" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="P22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="R22" s="9" t="s">
+      <c r="P22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R22" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="S22" s="9" t="s">
+      <c r="S22" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="T22" s="8" t="s">
-        <v>321</v>
+      <c r="T22" s="4" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="5" t="s">
         <v>114</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F23" s="5" t="s">
         <v>117</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="H23" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="K23" t="s">
-        <v>272</v>
-      </c>
-      <c r="L23" t="s">
+      <c r="G23" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="H23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="K23" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="L23" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="N23" t="s">
-        <v>273</v>
-      </c>
-      <c r="O23" t="s">
-        <v>274</v>
-      </c>
-      <c r="P23" t="s">
-        <v>275</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>17</v>
-      </c>
-      <c r="R23" t="s">
+      <c r="N23" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="O23" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="P23" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R23" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="S23" t="s">
-        <v>322</v>
-      </c>
-      <c r="T23" s="8" t="s">
-        <v>323</v>
+      <c r="S23" s="5" t="s">
+        <v>318</v>
+      </c>
+      <c r="T23" s="4" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C24" s="5" t="s">
         <v>120</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="5" t="s">
         <v>121</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G24" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H24" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" t="s">
-        <v>31</v>
-      </c>
-      <c r="J24" t="s">
-        <v>276</v>
-      </c>
-      <c r="K24" t="s">
-        <v>277</v>
-      </c>
-      <c r="L24" t="s">
+      <c r="H24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="K24" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="L24" s="5" t="s">
         <v>124</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="N24" t="s">
-        <v>31</v>
-      </c>
-      <c r="O24" t="s">
+      <c r="N24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="P24" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>31</v>
-      </c>
-      <c r="R24" t="s">
+      <c r="P24" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="Q24" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R24" s="5" t="s">
         <v>118</v>
       </c>
-      <c r="S24" t="s">
+      <c r="S24" s="5" t="s">
         <v>126</v>
       </c>
-      <c r="T24" s="8" t="s">
-        <v>325</v>
+      <c r="T24" s="4" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="H25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="K25" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="D25" t="s">
+      <c r="L25" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="M25" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q25" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="R25" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="S25" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="E25" t="s">
-        <v>281</v>
-      </c>
-      <c r="F25" t="s">
-        <v>193</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="H25" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" t="s">
-        <v>31</v>
-      </c>
-      <c r="J25" t="s">
-        <v>282</v>
-      </c>
-      <c r="K25" t="s">
-        <v>283</v>
-      </c>
-      <c r="L25" t="s">
-        <v>190</v>
-      </c>
-      <c r="M25" t="s">
-        <v>109</v>
-      </c>
-      <c r="N25" t="s">
-        <v>17</v>
-      </c>
-      <c r="O25" t="s">
-        <v>17</v>
-      </c>
-      <c r="P25" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>191</v>
-      </c>
-      <c r="R25" t="s">
-        <v>192</v>
-      </c>
-      <c r="S25" t="s">
-        <v>284</v>
-      </c>
-      <c r="T25" s="8" t="s">
-        <v>324</v>
+      <c r="T25" s="4" t="s">
+        <v>320</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="G26" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H26" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="K26" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="L26" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="M26" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="R26" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="S26" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D26" t="s">
-        <v>286</v>
-      </c>
-      <c r="E26" t="s">
-        <v>287</v>
-      </c>
-      <c r="F26" t="s">
-        <v>189</v>
-      </c>
-      <c r="G26" t="s">
-        <v>109</v>
-      </c>
-      <c r="H26" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" t="s">
-        <v>184</v>
-      </c>
-      <c r="K26" t="s">
-        <v>288</v>
-      </c>
-      <c r="L26" t="s">
-        <v>185</v>
-      </c>
-      <c r="M26" t="s">
-        <v>109</v>
-      </c>
-      <c r="N26" t="s">
-        <v>17</v>
-      </c>
-      <c r="O26" t="s">
-        <v>17</v>
-      </c>
-      <c r="P26" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>187</v>
-      </c>
-      <c r="R26" t="s">
-        <v>188</v>
-      </c>
-      <c r="S26" t="s">
-        <v>289</v>
-      </c>
-      <c r="T26" s="8" t="s">
-        <v>328</v>
+      <c r="T26" s="4" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="F27" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="C27" t="s">
+      <c r="G27" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="D27" t="s">
+      <c r="L27" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="E27" t="s">
+      <c r="M27" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R27" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="F27" t="s">
+      <c r="S27" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="G27" t="s">
-        <v>109</v>
-      </c>
-      <c r="H27" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" t="s">
-        <v>48</v>
-      </c>
-      <c r="K27" t="s">
-        <v>295</v>
-      </c>
-      <c r="L27" t="s">
-        <v>296</v>
-      </c>
-      <c r="M27" t="s">
-        <v>109</v>
-      </c>
-      <c r="N27" t="s">
-        <v>17</v>
-      </c>
-      <c r="O27" t="s">
-        <v>17</v>
-      </c>
-      <c r="P27" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>17</v>
-      </c>
-      <c r="R27" t="s">
-        <v>297</v>
-      </c>
-      <c r="S27" t="s">
-        <v>298</v>
-      </c>
-      <c r="T27" s="8" t="s">
-        <v>326</v>
+      <c r="T27" s="4" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B28" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="G28" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="K28" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="D28" t="s">
+      <c r="L28" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="E28" t="s">
+      <c r="M28" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="N28" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="F28" t="s">
+      <c r="P28" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="G28" t="s">
-        <v>109</v>
-      </c>
-      <c r="H28" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28" t="s">
-        <v>31</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="K28" t="s">
+      <c r="Q28" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="L28" t="s">
+      <c r="R28" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="M28" t="s">
-        <v>109</v>
-      </c>
-      <c r="N28" t="s">
-        <v>17</v>
-      </c>
-      <c r="O28" t="s">
+      <c r="S28" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="P28" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>307</v>
-      </c>
-      <c r="R28" t="s">
-        <v>308</v>
-      </c>
-      <c r="S28" t="s">
-        <v>309</v>
-      </c>
-      <c r="T28" s="8" t="s">
-        <v>327</v>
+      <c r="T28" s="4" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B29" s="11" t="s">
+      <c r="B29" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C29" t="s">
+      <c r="C29" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="D29" t="s">
-        <v>313</v>
-      </c>
-      <c r="E29" t="s">
+      <c r="D29" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E29" s="5" t="s">
         <v>129</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F29" s="5" t="s">
         <v>130</v>
       </c>
-      <c r="G29" s="4" t="s">
+      <c r="G29" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H29" t="s">
-        <v>31</v>
-      </c>
-      <c r="I29" t="s">
-        <v>31</v>
-      </c>
-      <c r="J29" t="s">
-        <v>310</v>
-      </c>
-      <c r="K29" t="s">
-        <v>17</v>
-      </c>
-      <c r="L29" t="s">
-        <v>296</v>
-      </c>
-      <c r="M29" t="s">
+      <c r="H29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="K29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="M29" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="N29" t="s">
+      <c r="N29" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="O29" t="s">
+      <c r="O29" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="P29" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q29" t="s">
+      <c r="P29" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q29" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="R29" t="s">
-        <v>312</v>
-      </c>
-      <c r="S29" t="s">
-        <v>266</v>
-      </c>
-      <c r="T29" s="8" t="s">
-        <v>329</v>
+      <c r="R29" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>325</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="9" t="s">
+      <c r="C30" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="E30" s="9" t="s">
+      <c r="E30" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="F30" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="G30" s="9" t="s">
+      <c r="G30" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="9" t="s">
+      <c r="H30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="K30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="L30" s="9" t="s">
+      <c r="K30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="M30" s="9" t="s">
+      <c r="M30" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="N30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="O30" s="9" t="s">
+      <c r="N30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="O30" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="P30" s="9" t="s">
+      <c r="P30" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="Q30" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="R30" s="9" t="s">
+      <c r="Q30" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="R30" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="S30" s="9" t="s">
+      <c r="S30" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="T30" s="8" t="s">
-        <v>330</v>
+      <c r="T30" s="4" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="10" t="s">
+      <c r="B31" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C31" t="s">
+      <c r="C31" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E31" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="F31" s="5"/>
+      <c r="G31" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="H31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" t="s">
+      <c r="H31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="K31" s="4" t="s">
+      <c r="K31" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="L31" t="s">
+      <c r="L31" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="M31" t="s">
-        <v>17</v>
-      </c>
-      <c r="N31" t="s">
-        <v>31</v>
-      </c>
-      <c r="O31" t="s">
+      <c r="M31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O31" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="P31" t="s">
+      <c r="P31" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="Q31" s="4" t="s">
+      <c r="Q31" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="R31" s="4" t="s">
+      <c r="R31" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="S31" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="T31" s="8" t="s">
-        <v>331</v>
+      <c r="S31" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="T31" s="4" t="s">
+        <v>327</v>
       </c>
     </row>
   </sheetData>

--- a/Data/AI_Tools_Table_12.xlsx
+++ b/Data/AI_Tools_Table_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\AI\Projects\AI_Compare\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAD0F946-9A18-439E-BC75-756E1CE22D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAE6B65-C140-406B-89E7-43DD2A741565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF61C1CC-D20C-43EF-A8A5-F593C3AFC645}"/>
   </bookViews>
@@ -1088,9 +1088,6 @@
 See CLI</t>
   </si>
   <si>
-    <t>Github Copilot CLI</t>
-  </si>
-  <si>
     <t>https://docs.github.com/en/copilot/how-tos/use-copilot-for-common-tasks/use-copilot-in-the-cli</t>
   </si>
   <si>
@@ -1163,9 +1160,6 @@
 Docker</t>
   </si>
   <si>
-    <t>QwenCode CLI</t>
-  </si>
-  <si>
     <t>GeminiCLI
 (Google)</t>
   </si>
@@ -1177,6 +1171,12 @@
   </si>
   <si>
     <t>AmazonQ Developer</t>
+  </si>
+  <si>
+    <t>Github CopilotCLI</t>
+  </si>
+  <si>
+    <t>QwenCodeCLI</t>
   </si>
 </sst>
 </file>
@@ -1259,16 +1259,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1627,8 +1626,8 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1649,123 +1648,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>330</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="7" t="s">
         <v>331</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="9" t="s">
+      <c r="H1" s="8" t="s">
+        <v>352</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="I1" s="9" t="s">
+      <c r="J1" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>173</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="N1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="O1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="P1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="R1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="7" t="s">
         <v>354</v>
       </c>
-      <c r="J1" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="N1" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="P1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>355</v>
-      </c>
-      <c r="T1" s="8" t="s">
+      <c r="T1" s="7" t="s">
         <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="6" t="s">
+      <c r="I2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="L2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="M2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="P2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q2" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R2" s="6" t="s">
+      <c r="Q2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="S2" s="5" t="s">
         <v>23</v>
       </c>
       <c r="T2" s="4" t="s">
@@ -1773,61 +1772,61 @@
       </c>
     </row>
     <row r="3" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="H3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J3" s="6" t="s">
+      <c r="H3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O3" s="6" t="s">
+      <c r="M3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O3" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q3" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" s="6" t="s">
+      <c r="Q3" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R3" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="S3" s="6" t="s">
+      <c r="S3" s="5" t="s">
         <v>34</v>
       </c>
       <c r="T3" s="4" t="s">
@@ -1835,61 +1834,61 @@
       </c>
     </row>
     <row r="4" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="12" t="s">
+      <c r="B4" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="6" t="s">
+      <c r="H4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="M4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P4" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" s="6" t="s">
+      <c r="O4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q4" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="R4" s="6" t="s">
+      <c r="R4" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="S4" s="6" t="s">
+      <c r="S4" s="5" t="s">
         <v>44</v>
       </c>
       <c r="T4" s="4" t="s">
@@ -1897,123 +1896,123 @@
       </c>
     </row>
     <row r="5" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="12" t="s">
+      <c r="B5" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>244</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="G5" s="6" t="s">
+      <c r="G5" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="I5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5" s="6" t="s">
+      <c r="I5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="K5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" s="6" t="s">
+      <c r="K5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="M5" s="6" t="s">
+      <c r="M5" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P5" s="6" t="s">
+      <c r="N5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P5" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q5" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" s="6" t="s">
+      <c r="Q5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R5" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="S5" s="6" t="s">
-        <v>356</v>
+      <c r="S5" s="5" t="s">
+        <v>355</v>
       </c>
       <c r="T5" s="4" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="D6" s="6" t="s">
+      <c r="D6" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="H6" s="6" t="s">
+      <c r="G6" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="H6" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="I6" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="6" t="s">
+      <c r="I6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="6" t="s">
+      <c r="L6" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="M6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O6" s="6" t="s">
+      <c r="M6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O6" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="P6" s="6" t="s">
+      <c r="P6" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R6" s="6" t="s">
+      <c r="Q6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="R6" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="S6" s="6" t="s">
+      <c r="S6" s="5" t="s">
         <v>142</v>
       </c>
       <c r="T6" s="4" t="s">
@@ -2021,61 +2020,61 @@
       </c>
     </row>
     <row r="7" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="12" t="s">
+      <c r="B7" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="G7" s="6" t="s">
+      <c r="G7" s="5" t="s">
         <v>251</v>
       </c>
-      <c r="H7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J7" s="6" t="s">
+      <c r="H7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="K7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M7" s="6" t="s">
+      <c r="K7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O7" s="6" t="s">
+      <c r="N7" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="P7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q7" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R7" s="6" t="s">
+      <c r="P7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R7" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="S7" s="6" t="s">
+      <c r="S7" s="5" t="s">
         <v>65</v>
       </c>
       <c r="T7" s="4" t="s">
@@ -2083,61 +2082,61 @@
       </c>
     </row>
     <row r="8" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="12" t="s">
+      <c r="B8" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="5" t="s">
         <v>332</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="6" t="s">
+      <c r="E8" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="H8" s="6" t="s">
+      <c r="H8" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J8" s="6" t="s">
+      <c r="I8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="K8" s="6" t="s">
+      <c r="K8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="L8" s="6" t="s">
+      <c r="L8" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="M8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N8" s="6" t="s">
+      <c r="M8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="P8" s="6" t="s">
+      <c r="P8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q8" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R8" s="6" t="s">
+      <c r="Q8" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R8" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="S8" s="6" t="s">
+      <c r="S8" s="5" t="s">
         <v>74</v>
       </c>
       <c r="T8" s="4" t="s">
@@ -2145,121 +2144,120 @@
       </c>
     </row>
     <row r="9" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B9" s="12" t="s">
+      <c r="B9" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="E9" s="6" t="s">
+      <c r="E9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J9" s="6" t="s">
+      <c r="H9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="K9" s="6" t="s">
+      <c r="K9" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="L9" s="6" t="s">
+      <c r="L9" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P9" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q9" s="6" t="s">
+      <c r="M9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q9" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="R9" s="6" t="s">
+      <c r="R9" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="S9" s="5"/>
       <c r="T9" s="4" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>364</v>
-      </c>
-      <c r="C10" s="6" t="s">
+      <c r="B10" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>335</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="E10" s="6" t="s">
+      <c r="E10" s="5" t="s">
         <v>334</v>
       </c>
-      <c r="F10" s="6" t="s">
+      <c r="F10" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="H10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="6" t="s">
+      <c r="H10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="K10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L10" s="6" t="s">
+      <c r="K10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L10" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="M10" s="6" t="s">
+      <c r="M10" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="N10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P10" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q10" s="6" t="s">
+      <c r="N10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q10" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="R10" s="6" t="s">
+      <c r="R10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="S10" s="6" t="s">
+      <c r="S10" s="5" t="s">
         <v>232</v>
       </c>
       <c r="T10" s="4" t="s">
@@ -2267,61 +2265,61 @@
       </c>
     </row>
     <row r="11" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B11" s="12" t="s">
+      <c r="B11" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="F11" s="6" t="s">
+      <c r="F11" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="H11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="6" t="s">
+      <c r="H11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="K11" s="6" t="s">
+      <c r="K11" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="M11" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11" s="6" t="s">
+      <c r="L11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q11" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="R11" s="6" t="s">
+      <c r="R11" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="S11" s="6" t="s">
+      <c r="S11" s="5" t="s">
         <v>224</v>
       </c>
       <c r="T11" s="4" t="s">
@@ -2329,123 +2327,123 @@
       </c>
     </row>
     <row r="12" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="5" t="s">
+        <v>345</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="S12" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="T12" s="4" t="s">
         <v>338</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J12" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="L12" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="M12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="O12" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="P12" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q12" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="R12" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="S12" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="T12" s="4" t="s">
-        <v>339</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B13" s="12" t="s">
-        <v>363</v>
-      </c>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="C13" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>245</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F13" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="G13" s="6" t="s">
+      <c r="F13" s="5" t="s">
+        <v>339</v>
+      </c>
+      <c r="G13" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="H13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J13" s="6" t="s">
+      <c r="H13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="K13" s="6" t="s">
+      <c r="K13" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="L13" s="6" t="s">
+      <c r="L13" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="M13" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N13" s="6" t="s">
+      <c r="M13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N13" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P13" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q13" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="R13" s="6" t="s">
+      <c r="O13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q13" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="R13" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="S13" s="6" t="s">
+      <c r="S13" s="5" t="s">
         <v>224</v>
       </c>
       <c r="T13" s="4" t="s">
@@ -2453,61 +2451,61 @@
       </c>
     </row>
     <row r="14" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B14" s="12" t="s">
-        <v>362</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="B14" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>254</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E14" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="G14" s="6" t="s">
+      <c r="F14" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="G14" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="H14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="6" t="s">
+      <c r="H14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="K14" s="6" t="s">
+      <c r="K14" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="L14" s="6" t="s">
+      <c r="L14" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="M14" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N14" s="6" t="s">
+      <c r="M14" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q14" s="6" t="s">
+      <c r="O14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P14" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q14" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="R14" s="6" t="s">
+      <c r="R14" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="S14" s="6" t="s">
+      <c r="S14" s="5" t="s">
         <v>255</v>
       </c>
       <c r="T14" s="4" t="s">
@@ -2515,58 +2513,58 @@
       </c>
     </row>
     <row r="15" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B15" s="12" t="s">
-        <v>361</v>
-      </c>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F15" s="6" t="s">
+      <c r="F15" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="H15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J15" s="6" t="s">
+      <c r="H15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="K15" s="6" t="s">
+      <c r="K15" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="L15" s="6" t="s">
+      <c r="L15" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="M15" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="6" t="s">
+      <c r="M15" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N15" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P15" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q15" s="6" t="s">
+      <c r="O15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P15" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q15" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="R15" s="6" t="s">
+      <c r="R15" s="5" t="s">
         <v>247</v>
       </c>
       <c r="S15" s="3" t="s">
@@ -2577,61 +2575,61 @@
       </c>
     </row>
     <row r="16" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B16" s="12" t="s">
-        <v>360</v>
-      </c>
-      <c r="C16" s="6" t="s">
+      <c r="B16" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="E16" s="6" t="s">
+      <c r="E16" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F16" s="6" t="s">
+      <c r="F16" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="H16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="6" t="s">
+      <c r="H16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="K16" s="6" t="s">
+      <c r="K16" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="L16" s="6" t="s">
+      <c r="L16" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="M16" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N16" s="6" t="s">
+      <c r="M16" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N16" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="O16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P16" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q16" s="6" t="s">
+      <c r="O16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P16" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="R16" s="6" t="s">
+      <c r="R16" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="S16" s="6" t="s">
+      <c r="S16" s="5" t="s">
         <v>261</v>
       </c>
       <c r="T16" s="4" t="s">
@@ -2639,61 +2637,61 @@
       </c>
     </row>
     <row r="17" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="E17" s="6" t="s">
+      <c r="E17" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="6" t="s">
+      <c r="F17" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="H17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J17" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="K17" s="6" t="s">
+      <c r="H17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J17" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="K17" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="L17" s="6" t="s">
+      <c r="L17" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M17" s="6" t="s">
+      <c r="M17" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="N17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P17" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q17" s="6" t="s">
+      <c r="N17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q17" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="R17" s="6" t="s">
+      <c r="R17" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="S17" s="6" t="s">
+      <c r="S17" s="5" t="s">
         <v>265</v>
       </c>
       <c r="T17" s="4" t="s">
@@ -2701,61 +2699,61 @@
       </c>
     </row>
     <row r="18" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="E18" s="6" t="s">
+      <c r="E18" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="F18" s="6" t="s">
+      <c r="F18" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="H18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I18" s="6" t="s">
+      <c r="H18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="J18" s="6" t="s">
+      <c r="J18" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="K18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" s="6" t="s">
+      <c r="K18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L18" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M18" s="6" t="s">
+      <c r="M18" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="N18" s="6" t="s">
+      <c r="N18" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="O18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P18" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q18" s="6" t="s">
+      <c r="O18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q18" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="R18" s="6" t="s">
+      <c r="R18" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="S18" s="6" t="s">
+      <c r="S18" s="5" t="s">
         <v>263</v>
       </c>
       <c r="T18" s="4" t="s">
@@ -2763,61 +2761,61 @@
       </c>
     </row>
     <row r="19" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B19" s="12" t="s">
+      <c r="B19" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="E19" s="6" t="s">
+      <c r="E19" s="5" t="s">
         <v>209</v>
       </c>
-      <c r="F19" s="6" t="s">
+      <c r="F19" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="G19" s="6" t="s">
-        <v>358</v>
-      </c>
-      <c r="H19" s="6" t="s">
+      <c r="G19" s="5" t="s">
+        <v>357</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="I19" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J19" s="6" t="s">
+      <c r="I19" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J19" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="K19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L19" s="6" t="s">
+      <c r="K19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="L19" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="M19" s="6" t="s">
+      <c r="M19" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="N19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="O19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="P19" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q19" s="6" t="s">
+      <c r="N19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="O19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="P19" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="R19" s="6" t="s">
+      <c r="R19" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="S19" s="5" t="s">
+      <c r="S19" t="s">
         <v>204</v>
       </c>
       <c r="T19" s="4" t="s">
@@ -2825,61 +2823,61 @@
       </c>
     </row>
     <row r="20" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B20" s="12" t="s">
+      <c r="B20" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="E20" s="6" t="s">
+      <c r="E20" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="H20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J20" s="6" t="s">
+      <c r="H20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L20" s="6" t="s">
+      <c r="K20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L20" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M20" s="6" t="s">
+      <c r="M20" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="N20" s="6" t="s">
+      <c r="N20" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="O20" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P20" s="6" t="s">
+      <c r="O20" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P20" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="Q20" s="6" t="s">
+      <c r="Q20" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="R20" s="6" t="s">
+      <c r="R20" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="S20" s="6" t="s">
+      <c r="S20" s="5" t="s">
         <v>266</v>
       </c>
       <c r="T20" s="4" t="s">
@@ -2887,61 +2885,61 @@
       </c>
     </row>
     <row r="21" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B21" s="12" t="s">
+      <c r="B21" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="F21" s="6" t="s">
+      <c r="F21" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J21" s="6" t="s">
+      <c r="H21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K21" s="6" t="s">
+      <c r="K21" s="5" t="s">
         <v>248</v>
       </c>
-      <c r="L21" s="6" t="s">
+      <c r="L21" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O21" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="P21" s="6" t="s">
+      <c r="M21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O21" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="P21" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="Q21" s="6" t="s">
+      <c r="Q21" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="R21" s="6" t="s">
+      <c r="R21" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="S21" s="6" t="s">
+      <c r="S21" s="5" t="s">
         <v>267</v>
       </c>
       <c r="T21" s="4" t="s">
@@ -2949,61 +2947,61 @@
       </c>
     </row>
     <row r="22" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B22" s="12" t="s">
+      <c r="B22" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="6" t="s">
+      <c r="F22" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="H22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="6" t="s">
+      <c r="H22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="I22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="K22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L22" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="M22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="N22" s="6" t="s">
+      <c r="K22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="N22" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="O22" s="6" t="s">
+      <c r="O22" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="P22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q22" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R22" s="6" t="s">
+      <c r="P22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R22" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="S22" s="6" t="s">
+      <c r="S22" s="5" t="s">
         <v>112</v>
       </c>
       <c r="T22" s="4" t="s">
@@ -3011,61 +3009,61 @@
       </c>
     </row>
     <row r="23" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" t="s">
         <v>114</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" t="s">
         <v>115</v>
       </c>
-      <c r="E23" s="5" t="s">
+      <c r="E23" t="s">
         <v>116</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" t="s">
         <v>117</v>
       </c>
-      <c r="G23" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="K23" s="5" t="s">
+      <c r="G23" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="K23" t="s">
         <v>268</v>
       </c>
-      <c r="L23" s="5" t="s">
+      <c r="L23" t="s">
         <v>195</v>
       </c>
-      <c r="M23" s="5" t="s">
+      <c r="M23" t="s">
         <v>109</v>
       </c>
-      <c r="N23" s="5" t="s">
+      <c r="N23" t="s">
         <v>269</v>
       </c>
-      <c r="O23" s="5" t="s">
+      <c r="O23" t="s">
         <v>270</v>
       </c>
-      <c r="P23" s="5" t="s">
+      <c r="P23" t="s">
         <v>271</v>
       </c>
-      <c r="Q23" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R23" s="5" t="s">
+      <c r="Q23" t="s">
+        <v>17</v>
+      </c>
+      <c r="R23" t="s">
         <v>196</v>
       </c>
-      <c r="S23" s="5" t="s">
+      <c r="S23" t="s">
         <v>318</v>
       </c>
       <c r="T23" s="4" t="s">
@@ -3073,61 +3071,61 @@
       </c>
     </row>
     <row r="24" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" t="s">
         <v>120</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" t="s">
         <v>121</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" t="s">
         <v>122</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" t="s">
         <v>123</v>
       </c>
-      <c r="G24" s="5" t="s">
+      <c r="G24" t="s">
         <v>109</v>
       </c>
-      <c r="H24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J24" s="5" t="s">
+      <c r="H24" t="s">
+        <v>31</v>
+      </c>
+      <c r="I24" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" t="s">
         <v>272</v>
       </c>
-      <c r="K24" s="5" t="s">
+      <c r="K24" t="s">
         <v>273</v>
       </c>
-      <c r="L24" s="5" t="s">
+      <c r="L24" t="s">
         <v>124</v>
       </c>
-      <c r="M24" s="5" t="s">
+      <c r="M24" t="s">
         <v>109</v>
       </c>
-      <c r="N24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O24" s="5" t="s">
+      <c r="N24" t="s">
+        <v>31</v>
+      </c>
+      <c r="O24" t="s">
         <v>125</v>
       </c>
-      <c r="P24" s="5" t="s">
+      <c r="P24" t="s">
         <v>274</v>
       </c>
-      <c r="Q24" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="R24" s="5" t="s">
+      <c r="Q24" t="s">
+        <v>31</v>
+      </c>
+      <c r="R24" t="s">
         <v>118</v>
       </c>
-      <c r="S24" s="5" t="s">
+      <c r="S24" t="s">
         <v>126</v>
       </c>
       <c r="T24" s="4" t="s">
@@ -3135,61 +3133,61 @@
       </c>
     </row>
     <row r="25" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" t="s">
         <v>275</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" t="s">
         <v>276</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="E25" t="s">
         <v>277</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" t="s">
         <v>193</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="H25" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I25" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J25" s="5" t="s">
+      <c r="H25" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" t="s">
         <v>278</v>
       </c>
-      <c r="K25" s="5" t="s">
+      <c r="K25" t="s">
         <v>279</v>
       </c>
-      <c r="L25" s="5" t="s">
+      <c r="L25" t="s">
         <v>190</v>
       </c>
-      <c r="M25" s="5" t="s">
+      <c r="M25" t="s">
         <v>109</v>
       </c>
-      <c r="N25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O25" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P25" s="5" t="s">
+      <c r="N25" t="s">
+        <v>17</v>
+      </c>
+      <c r="O25" t="s">
+        <v>17</v>
+      </c>
+      <c r="P25" t="s">
         <v>186</v>
       </c>
-      <c r="Q25" s="5" t="s">
+      <c r="Q25" t="s">
         <v>191</v>
       </c>
-      <c r="R25" s="5" t="s">
+      <c r="R25" t="s">
         <v>192</v>
       </c>
-      <c r="S25" s="5" t="s">
+      <c r="S25" t="s">
         <v>280</v>
       </c>
       <c r="T25" s="4" t="s">
@@ -3197,61 +3195,61 @@
       </c>
     </row>
     <row r="26" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" t="s">
         <v>281</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" t="s">
         <v>282</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" t="s">
         <v>283</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" t="s">
         <v>189</v>
       </c>
-      <c r="G26" s="5" t="s">
+      <c r="G26" t="s">
         <v>109</v>
       </c>
-      <c r="H26" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J26" s="5" t="s">
+      <c r="H26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I26" t="s">
+        <v>17</v>
+      </c>
+      <c r="J26" t="s">
         <v>184</v>
       </c>
-      <c r="K26" s="5" t="s">
+      <c r="K26" t="s">
         <v>284</v>
       </c>
-      <c r="L26" s="5" t="s">
+      <c r="L26" t="s">
         <v>185</v>
       </c>
-      <c r="M26" s="5" t="s">
+      <c r="M26" t="s">
         <v>109</v>
       </c>
-      <c r="N26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q26" s="5" t="s">
+      <c r="N26" t="s">
+        <v>17</v>
+      </c>
+      <c r="O26" t="s">
+        <v>17</v>
+      </c>
+      <c r="P26" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q26" t="s">
         <v>187</v>
       </c>
-      <c r="R26" s="5" t="s">
+      <c r="R26" t="s">
         <v>188</v>
       </c>
-      <c r="S26" s="5" t="s">
+      <c r="S26" t="s">
         <v>285</v>
       </c>
       <c r="T26" s="4" t="s">
@@ -3259,61 +3257,61 @@
       </c>
     </row>
     <row r="27" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" t="s">
         <v>287</v>
       </c>
-      <c r="D27" s="5" t="s">
+      <c r="D27" t="s">
         <v>288</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" t="s">
         <v>289</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" t="s">
         <v>290</v>
       </c>
-      <c r="G27" s="5" t="s">
+      <c r="G27" t="s">
         <v>109</v>
       </c>
-      <c r="H27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J27" s="5" t="s">
+      <c r="H27" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" t="s">
+        <v>17</v>
+      </c>
+      <c r="J27" t="s">
         <v>48</v>
       </c>
-      <c r="K27" s="5" t="s">
+      <c r="K27" t="s">
         <v>291</v>
       </c>
-      <c r="L27" s="5" t="s">
+      <c r="L27" t="s">
         <v>292</v>
       </c>
-      <c r="M27" s="5" t="s">
+      <c r="M27" t="s">
         <v>109</v>
       </c>
-      <c r="N27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q27" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R27" s="5" t="s">
+      <c r="N27" t="s">
+        <v>17</v>
+      </c>
+      <c r="O27" t="s">
+        <v>17</v>
+      </c>
+      <c r="P27" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>17</v>
+      </c>
+      <c r="R27" t="s">
         <v>293</v>
       </c>
-      <c r="S27" s="5" t="s">
+      <c r="S27" t="s">
         <v>294</v>
       </c>
       <c r="T27" s="4" t="s">
@@ -3321,61 +3319,61 @@
       </c>
     </row>
     <row r="28" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="C28" s="5" t="s">
+      <c r="C28" t="s">
         <v>295</v>
       </c>
-      <c r="D28" s="5" t="s">
+      <c r="D28" t="s">
         <v>296</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" t="s">
         <v>297</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" t="s">
         <v>298</v>
       </c>
-      <c r="G28" s="5" t="s">
+      <c r="G28" t="s">
         <v>109</v>
       </c>
-      <c r="H28" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J28" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="K28" s="5" t="s">
+      <c r="H28" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="K28" t="s">
         <v>299</v>
       </c>
-      <c r="L28" s="5" t="s">
+      <c r="L28" t="s">
         <v>300</v>
       </c>
-      <c r="M28" s="5" t="s">
+      <c r="M28" t="s">
         <v>109</v>
       </c>
-      <c r="N28" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="O28" s="5" t="s">
+      <c r="N28" t="s">
+        <v>17</v>
+      </c>
+      <c r="O28" t="s">
         <v>301</v>
       </c>
-      <c r="P28" s="5" t="s">
+      <c r="P28" t="s">
         <v>302</v>
       </c>
-      <c r="Q28" s="5" t="s">
+      <c r="Q28" t="s">
         <v>303</v>
       </c>
-      <c r="R28" s="5" t="s">
+      <c r="R28" t="s">
         <v>304</v>
       </c>
-      <c r="S28" s="5" t="s">
+      <c r="S28" t="s">
         <v>305</v>
       </c>
       <c r="T28" s="4" t="s">
@@ -3383,61 +3381,61 @@
       </c>
     </row>
     <row r="29" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="5" t="s">
         <v>104</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" t="s">
         <v>128</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="D29" t="s">
         <v>309</v>
       </c>
-      <c r="E29" s="5" t="s">
+      <c r="E29" t="s">
         <v>129</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" t="s">
         <v>130</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="J29" s="5" t="s">
+      <c r="H29" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" t="s">
         <v>306</v>
       </c>
-      <c r="K29" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L29" s="5" t="s">
+      <c r="K29" t="s">
+        <v>17</v>
+      </c>
+      <c r="L29" t="s">
         <v>292</v>
       </c>
-      <c r="M29" s="5" t="s">
+      <c r="M29" t="s">
         <v>109</v>
       </c>
-      <c r="N29" s="5" t="s">
+      <c r="N29" t="s">
         <v>183</v>
       </c>
-      <c r="O29" s="5" t="s">
+      <c r="O29" t="s">
         <v>182</v>
       </c>
-      <c r="P29" s="5" t="s">
+      <c r="P29" t="s">
         <v>307</v>
       </c>
-      <c r="Q29" s="5" t="s">
+      <c r="Q29" t="s">
         <v>181</v>
       </c>
-      <c r="R29" s="5" t="s">
+      <c r="R29" t="s">
         <v>308</v>
       </c>
-      <c r="S29" s="5" t="s">
+      <c r="S29" t="s">
         <v>262</v>
       </c>
       <c r="T29" s="4" t="s">
@@ -3445,61 +3443,61 @@
       </c>
     </row>
     <row r="30" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B30" s="12" t="s">
+      <c r="B30" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="D30" s="6" t="s">
+      <c r="D30" s="5" t="s">
         <v>133</v>
       </c>
-      <c r="E30" s="6" t="s">
+      <c r="E30" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F30" s="6" t="s">
+      <c r="F30" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="H30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J30" s="6" t="s">
+      <c r="H30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J30" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="K30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="L30" s="6" t="s">
+      <c r="K30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="L30" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="M30" s="6" t="s">
+      <c r="M30" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="N30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="O30" s="6" t="s">
+      <c r="N30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="O30" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="P30" s="6" t="s">
+      <c r="P30" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="Q30" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="R30" s="6" t="s">
+      <c r="Q30" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="R30" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="S30" s="6" t="s">
+      <c r="S30" s="5" t="s">
         <v>137</v>
       </c>
       <c r="T30" s="4" t="s">
@@ -3507,59 +3505,58 @@
       </c>
     </row>
     <row r="31" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B31" s="12" t="s">
+      <c r="B31" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" t="s">
         <v>167</v>
       </c>
-      <c r="D31" s="6" t="s">
+      <c r="D31" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="E31" s="5" t="s">
+      <c r="E31" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="5"/>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="H31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="I31" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="5" t="s">
+      <c r="H31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" t="s">
         <v>175</v>
       </c>
-      <c r="K31" s="6" t="s">
+      <c r="K31" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="L31" s="5" t="s">
+      <c r="L31" t="s">
         <v>175</v>
       </c>
-      <c r="M31" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N31" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="O31" s="5" t="s">
+      <c r="M31" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" t="s">
+        <v>31</v>
+      </c>
+      <c r="O31" t="s">
         <v>180</v>
       </c>
-      <c r="P31" s="5" t="s">
+      <c r="P31" t="s">
         <v>180</v>
       </c>
-      <c r="Q31" s="6" t="s">
+      <c r="Q31" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="R31" s="6" t="s">
+      <c r="R31" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="S31" s="6" t="s">
+      <c r="S31" s="5" t="s">
         <v>328</v>
       </c>
       <c r="T31" s="4" t="s">

--- a/Data/AI_Tools_Table_12.xlsx
+++ b/Data/AI_Tools_Table_12.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\AI\Projects\AI_Compare\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBAE6B65-C140-406B-89E7-43DD2A741565}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A322663-5478-45AA-A8C5-7C4C70B659AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CF61C1CC-D20C-43EF-A8A5-F593C3AFC645}"/>
+    <workbookView xWindow="28680" yWindow="4395" windowWidth="29040" windowHeight="15840" xr2:uid="{CF61C1CC-D20C-43EF-A8A5-F593C3AFC645}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -720,9 +720,6 @@
     <t>Open source version with auth for free tier</t>
   </si>
   <si>
-    <t>Powerful and flexible basic interface and generous free tiers</t>
-  </si>
-  <si>
     <t>Free (generous)
 Paid
 No Student</t>
@@ -1091,13 +1088,7 @@
     <t>https://docs.github.com/en/copilot/how-tos/use-copilot-for-common-tasks/use-copilot-in-the-cli</t>
   </si>
   <si>
-    <t>Local Private Claude Chat/code assistant</t>
-  </si>
-  <si>
     <t xml:space="preserve">Local Private Open AI Code evaluation and assistance </t>
-  </si>
-  <si>
-    <t>Local Private Github/Copilot Chat/code assistant</t>
   </si>
   <si>
     <t>CLI Code Assist with Github</t>
@@ -1177,6 +1168,15 @@
   </si>
   <si>
     <t>QwenCodeCLI</t>
+  </si>
+  <si>
+    <t>Powerful, flexible interface. Generous free tiers</t>
+  </si>
+  <si>
+    <t>Local Private Claude Chat Code assistant</t>
+  </si>
+  <si>
+    <t>Local Private Chat Code assistant</t>
   </si>
 </sst>
 </file>
@@ -1627,7 +1627,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1658,22 +1658,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>153</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>152</v>
@@ -1703,10 +1703,10 @@
         <v>9</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1768,7 +1768,7 @@
         <v>23</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1830,7 +1830,7 @@
         <v>34</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1892,7 +1892,7 @@
         <v>44</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1900,13 +1900,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>46</v>
@@ -1918,7 +1918,7 @@
         <v>141</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>17</v>
@@ -1951,10 +1951,10 @@
         <v>49</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1977,10 +1977,10 @@
         <v>54</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>17</v>
@@ -2016,7 +2016,7 @@
         <v>142</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2036,10 +2036,10 @@
         <v>62</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>31</v>
@@ -2078,7 +2078,7 @@
         <v>65</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2089,13 +2089,13 @@
         <v>66</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>68</v>
@@ -2140,7 +2140,7 @@
         <v>74</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2199,7 +2199,7 @@
         <v>81</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2207,22 +2207,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>82</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>31</v>
@@ -2258,10 +2258,10 @@
         <v>85</v>
       </c>
       <c r="S10" s="5" t="s">
+        <v>231</v>
+      </c>
+      <c r="T10" s="4" t="s">
         <v>232</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2272,19 +2272,19 @@
         <v>86</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>228</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>229</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>87</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>17</v>
@@ -2320,10 +2320,10 @@
         <v>89</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2331,22 +2331,22 @@
         <v>162</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>165</v>
       </c>
       <c r="F12" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="G12" s="5" t="s">
         <v>341</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>344</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>31</v>
@@ -2370,22 +2370,22 @@
         <v>42</v>
       </c>
       <c r="O12" s="5" t="s">
+        <v>342</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="R12" s="5" t="s">
+        <v>346</v>
+      </c>
+      <c r="S12" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="P12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q12" s="5" t="s">
-        <v>347</v>
-      </c>
-      <c r="R12" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="S12" s="5" t="s">
-        <v>348</v>
-      </c>
       <c r="T12" s="4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2393,22 +2393,22 @@
         <v>162</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>162</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>165</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>31</v>
@@ -2438,16 +2438,16 @@
         <v>31</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2455,19 +2455,19 @@
         <v>162</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>253</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>254</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>165</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>141</v>
@@ -2506,10 +2506,10 @@
         <v>81</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2517,7 +2517,7 @@
         <v>162</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>162</v>
@@ -2529,10 +2529,10 @@
         <v>165</v>
       </c>
       <c r="F15" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="G15" s="5" t="s">
         <v>221</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>222</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>31</v>
@@ -2562,16 +2562,16 @@
         <v>31</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2579,7 +2579,7 @@
         <v>162</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>162</v>
@@ -2594,7 +2594,7 @@
         <v>220</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>31</v>
@@ -2624,16 +2624,16 @@
         <v>31</v>
       </c>
       <c r="Q16" s="5" t="s">
+        <v>255</v>
+      </c>
+      <c r="R16" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="R16" s="5" t="s">
-        <v>257</v>
-      </c>
       <c r="S16" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2656,7 +2656,7 @@
         <v>94</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>17</v>
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>80</v>
@@ -2692,10 +2692,10 @@
         <v>96</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2727,7 +2727,7 @@
         <v>102</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>31</v>
@@ -2754,10 +2754,10 @@
         <v>171</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2780,7 +2780,7 @@
         <v>210</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>207</v>
@@ -2819,7 +2819,7 @@
         <v>204</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2878,10 +2878,10 @@
         <v>202</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2916,7 +2916,7 @@
         <v>49</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="L21" s="5" t="s">
         <v>49</v>
@@ -2937,13 +2937,13 @@
         <v>163</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3005,7 +3005,7 @@
         <v>112</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3028,7 +3028,7 @@
         <v>117</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="H23" t="s">
         <v>31</v>
@@ -3037,10 +3037,10 @@
         <v>31</v>
       </c>
       <c r="J23" s="5" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="K23" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="L23" t="s">
         <v>195</v>
@@ -3049,13 +3049,13 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
+        <v>268</v>
+      </c>
+      <c r="O23" t="s">
         <v>269</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>270</v>
-      </c>
-      <c r="P23" t="s">
-        <v>271</v>
       </c>
       <c r="Q23" t="s">
         <v>17</v>
@@ -3064,10 +3064,10 @@
         <v>196</v>
       </c>
       <c r="S23" t="s">
+        <v>317</v>
+      </c>
+      <c r="T23" s="4" t="s">
         <v>318</v>
-      </c>
-      <c r="T23" s="4" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3099,10 +3099,10 @@
         <v>31</v>
       </c>
       <c r="J24" t="s">
+        <v>271</v>
+      </c>
+      <c r="K24" t="s">
         <v>272</v>
-      </c>
-      <c r="K24" t="s">
-        <v>273</v>
       </c>
       <c r="L24" t="s">
         <v>124</v>
@@ -3117,7 +3117,7 @@
         <v>125</v>
       </c>
       <c r="P24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="Q24" t="s">
         <v>31</v>
@@ -3129,7 +3129,7 @@
         <v>126</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3140,19 +3140,19 @@
         <v>145</v>
       </c>
       <c r="C25" t="s">
+        <v>274</v>
+      </c>
+      <c r="D25" t="s">
         <v>275</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>276</v>
-      </c>
-      <c r="E25" t="s">
-        <v>277</v>
       </c>
       <c r="F25" t="s">
         <v>193</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H25" t="s">
         <v>31</v>
@@ -3161,10 +3161,10 @@
         <v>31</v>
       </c>
       <c r="J25" t="s">
+        <v>277</v>
+      </c>
+      <c r="K25" t="s">
         <v>278</v>
-      </c>
-      <c r="K25" t="s">
-        <v>279</v>
       </c>
       <c r="L25" t="s">
         <v>190</v>
@@ -3188,10 +3188,10 @@
         <v>192</v>
       </c>
       <c r="S25" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3202,13 +3202,13 @@
         <v>143</v>
       </c>
       <c r="C26" t="s">
+        <v>280</v>
+      </c>
+      <c r="D26" t="s">
         <v>281</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>282</v>
-      </c>
-      <c r="E26" t="s">
-        <v>283</v>
       </c>
       <c r="F26" t="s">
         <v>189</v>
@@ -3226,7 +3226,7 @@
         <v>184</v>
       </c>
       <c r="K26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="L26" t="s">
         <v>185</v>
@@ -3250,10 +3250,10 @@
         <v>188</v>
       </c>
       <c r="S26" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3261,19 +3261,19 @@
         <v>104</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C27" t="s">
         <v>286</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>287</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>288</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>289</v>
-      </c>
-      <c r="F27" t="s">
-        <v>290</v>
       </c>
       <c r="G27" t="s">
         <v>109</v>
@@ -3288,10 +3288,10 @@
         <v>48</v>
       </c>
       <c r="K27" t="s">
+        <v>290</v>
+      </c>
+      <c r="L27" t="s">
         <v>291</v>
-      </c>
-      <c r="L27" t="s">
-        <v>292</v>
       </c>
       <c r="M27" t="s">
         <v>109</v>
@@ -3309,13 +3309,13 @@
         <v>17</v>
       </c>
       <c r="R27" t="s">
+        <v>292</v>
+      </c>
+      <c r="S27" t="s">
         <v>293</v>
       </c>
-      <c r="S27" t="s">
-        <v>294</v>
-      </c>
       <c r="T27" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3326,16 +3326,16 @@
         <v>144</v>
       </c>
       <c r="C28" t="s">
+        <v>294</v>
+      </c>
+      <c r="D28" t="s">
         <v>295</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>296</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>297</v>
-      </c>
-      <c r="F28" t="s">
-        <v>298</v>
       </c>
       <c r="G28" t="s">
         <v>109</v>
@@ -3347,13 +3347,13 @@
         <v>31</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="K28" t="s">
+        <v>298</v>
+      </c>
+      <c r="L28" t="s">
         <v>299</v>
-      </c>
-      <c r="L28" t="s">
-        <v>300</v>
       </c>
       <c r="M28" t="s">
         <v>109</v>
@@ -3362,22 +3362,22 @@
         <v>17</v>
       </c>
       <c r="O28" t="s">
+        <v>300</v>
+      </c>
+      <c r="P28" t="s">
         <v>301</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>302</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>303</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>304</v>
       </c>
-      <c r="S28" t="s">
-        <v>305</v>
-      </c>
       <c r="T28" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3391,7 +3391,7 @@
         <v>128</v>
       </c>
       <c r="D29" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E29" t="s">
         <v>129</v>
@@ -3409,13 +3409,13 @@
         <v>31</v>
       </c>
       <c r="J29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K29" t="s">
         <v>17</v>
       </c>
       <c r="L29" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M29" t="s">
         <v>109</v>
@@ -3427,19 +3427,19 @@
         <v>182</v>
       </c>
       <c r="P29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q29" t="s">
         <v>181</v>
       </c>
       <c r="R29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="S29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3501,7 +3501,7 @@
         <v>137</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3557,10 +3557,10 @@
         <v>178</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/Data/AI_Tools_Table_12.xlsx
+++ b/Data/AI_Tools_Table_12.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\AI\Projects\AI_Compare\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A322663-5478-45AA-A8C5-7C4C70B659AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18104CC3-4016-40AB-B050-34F9EBB825C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="4395" windowWidth="29040" windowHeight="15840" xr2:uid="{CF61C1CC-D20C-43EF-A8A5-F593C3AFC645}"/>
   </bookViews>
@@ -714,9 +714,6 @@
     <t>Multi Purpose Environment</t>
   </si>
   <si>
-    <t>Chat Qwen AI</t>
-  </si>
-  <si>
     <t>Open source version with auth for free tier</t>
   </si>
   <si>
@@ -1088,9 +1085,6 @@
     <t>https://docs.github.com/en/copilot/how-tos/use-copilot-for-common-tasks/use-copilot-in-the-cli</t>
   </si>
   <si>
-    <t xml:space="preserve">Local Private Open AI Code evaluation and assistance </t>
-  </si>
-  <si>
     <t>CLI Code Assist with Github</t>
   </si>
   <si>
@@ -1170,13 +1164,20 @@
     <t>QwenCodeCLI</t>
   </si>
   <si>
-    <t>Powerful, flexible interface. Generous free tiers</t>
-  </si>
-  <si>
-    <t>Local Private Claude Chat Code assistant</t>
-  </si>
-  <si>
     <t>Local Private Chat Code assistant</t>
+  </si>
+  <si>
+    <t>Powerful, flexible UI. Generous free tiers</t>
+  </si>
+  <si>
+    <t>Local Private  assistant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Local private evaluation and assistance </t>
+  </si>
+  <si>
+    <t>ChatQwenAI
+(Ali Baba)</t>
   </si>
 </sst>
 </file>
@@ -1626,8 +1627,8 @@
   <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F13" sqref="F13"/>
+      <pane ySplit="1" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="45" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1658,22 +1659,22 @@
         <v>2</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>153</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H1" s="8" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="I1" s="8" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="J1" s="9" t="s">
         <v>152</v>
@@ -1703,10 +1704,10 @@
         <v>9</v>
       </c>
       <c r="S1" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="T1" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1768,7 +1769,7 @@
         <v>23</v>
       </c>
       <c r="T2" s="4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1830,7 +1831,7 @@
         <v>34</v>
       </c>
       <c r="T3" s="4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1892,7 +1893,7 @@
         <v>44</v>
       </c>
       <c r="T4" s="4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1900,13 +1901,13 @@
         <v>7</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>45</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>46</v>
@@ -1918,7 +1919,7 @@
         <v>141</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>17</v>
@@ -1951,10 +1952,10 @@
         <v>49</v>
       </c>
       <c r="S5" s="5" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="T5" s="4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="6" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1977,10 +1978,10 @@
         <v>54</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>17</v>
@@ -2016,7 +2017,7 @@
         <v>142</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2036,10 +2037,10 @@
         <v>62</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>31</v>
@@ -2078,7 +2079,7 @@
         <v>65</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2089,13 +2090,13 @@
         <v>66</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>67</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>68</v>
@@ -2140,7 +2141,7 @@
         <v>74</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2199,7 +2200,7 @@
         <v>81</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="10" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2207,22 +2208,22 @@
         <v>7</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>82</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H10" s="5" t="s">
         <v>31</v>
@@ -2258,10 +2259,10 @@
         <v>85</v>
       </c>
       <c r="S10" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="T10" s="4" t="s">
         <v>231</v>
-      </c>
-      <c r="T10" s="4" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2272,19 +2273,19 @@
         <v>86</v>
       </c>
       <c r="C11" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="E11" s="5" t="s">
         <v>227</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>240</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>228</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>87</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H11" s="5" t="s">
         <v>17</v>
@@ -2320,10 +2321,10 @@
         <v>89</v>
       </c>
       <c r="S11" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T11" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2331,22 +2332,22 @@
         <v>162</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>165</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="H12" s="5" t="s">
         <v>31</v>
@@ -2370,22 +2371,22 @@
         <v>42</v>
       </c>
       <c r="O12" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="P12" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q12" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="P12" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q12" s="5" t="s">
+      <c r="R12" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="R12" s="5" t="s">
-        <v>346</v>
-      </c>
       <c r="S12" s="5" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="T12" s="4" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2393,22 +2394,22 @@
         <v>162</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>162</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>165</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="H13" s="5" t="s">
         <v>31</v>
@@ -2438,16 +2439,16 @@
         <v>31</v>
       </c>
       <c r="Q13" s="5" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="R13" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S13" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="T13" s="4" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2455,19 +2456,19 @@
         <v>162</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="C14" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D14" s="5" t="s">
         <v>252</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>253</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>165</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>338</v>
+        <v>363</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>141</v>
@@ -2506,10 +2507,10 @@
         <v>81</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="T14" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2517,7 +2518,7 @@
         <v>162</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>162</v>
@@ -2529,10 +2530,10 @@
         <v>165</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H15" s="5" t="s">
         <v>31</v>
@@ -2562,16 +2563,16 @@
         <v>31</v>
       </c>
       <c r="Q15" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="R15" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="T15" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2579,7 +2580,7 @@
         <v>162</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>162</v>
@@ -2591,10 +2592,10 @@
         <v>165</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H16" s="5" t="s">
         <v>31</v>
@@ -2624,16 +2625,16 @@
         <v>31</v>
       </c>
       <c r="Q16" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="R16" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="R16" s="5" t="s">
-        <v>256</v>
-      </c>
       <c r="S16" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="T16" s="4" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2656,7 +2657,7 @@
         <v>94</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H17" s="5" t="s">
         <v>17</v>
@@ -2665,7 +2666,7 @@
         <v>17</v>
       </c>
       <c r="J17" s="5" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="K17" s="5" t="s">
         <v>80</v>
@@ -2692,10 +2693,10 @@
         <v>96</v>
       </c>
       <c r="S17" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="T17" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2727,7 +2728,7 @@
         <v>102</v>
       </c>
       <c r="J18" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="K18" s="5" t="s">
         <v>31</v>
@@ -2754,10 +2755,10 @@
         <v>171</v>
       </c>
       <c r="S18" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="T18" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2780,7 +2781,7 @@
         <v>210</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H19" s="5" t="s">
         <v>207</v>
@@ -2819,7 +2820,7 @@
         <v>204</v>
       </c>
       <c r="T19" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2878,10 +2879,10 @@
         <v>202</v>
       </c>
       <c r="S20" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="T20" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -2889,7 +2890,7 @@
         <v>104</v>
       </c>
       <c r="B21" s="11" t="s">
-        <v>219</v>
+        <v>364</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>216</v>
@@ -2916,7 +2917,7 @@
         <v>49</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="L21" s="5" t="s">
         <v>49</v>
@@ -2937,13 +2938,13 @@
         <v>163</v>
       </c>
       <c r="R21" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S21" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="T21" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3005,7 +3006,7 @@
         <v>112</v>
       </c>
       <c r="T22" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3028,19 +3029,19 @@
         <v>117</v>
       </c>
       <c r="G23" s="5" t="s">
+        <v>351</v>
+      </c>
+      <c r="H23" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="5" t="s">
         <v>353</v>
       </c>
-      <c r="H23" t="s">
-        <v>31</v>
-      </c>
-      <c r="I23" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="5" t="s">
-        <v>355</v>
-      </c>
       <c r="K23" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="L23" t="s">
         <v>195</v>
@@ -3049,13 +3050,13 @@
         <v>109</v>
       </c>
       <c r="N23" t="s">
+        <v>267</v>
+      </c>
+      <c r="O23" t="s">
         <v>268</v>
       </c>
-      <c r="O23" t="s">
+      <c r="P23" t="s">
         <v>269</v>
-      </c>
-      <c r="P23" t="s">
-        <v>270</v>
       </c>
       <c r="Q23" t="s">
         <v>17</v>
@@ -3064,10 +3065,10 @@
         <v>196</v>
       </c>
       <c r="S23" t="s">
+        <v>316</v>
+      </c>
+      <c r="T23" s="4" t="s">
         <v>317</v>
-      </c>
-      <c r="T23" s="4" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3099,10 +3100,10 @@
         <v>31</v>
       </c>
       <c r="J24" t="s">
+        <v>270</v>
+      </c>
+      <c r="K24" t="s">
         <v>271</v>
-      </c>
-      <c r="K24" t="s">
-        <v>272</v>
       </c>
       <c r="L24" t="s">
         <v>124</v>
@@ -3117,7 +3118,7 @@
         <v>125</v>
       </c>
       <c r="P24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="Q24" t="s">
         <v>31</v>
@@ -3129,7 +3130,7 @@
         <v>126</v>
       </c>
       <c r="T24" s="4" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3140,19 +3141,19 @@
         <v>145</v>
       </c>
       <c r="C25" t="s">
+        <v>273</v>
+      </c>
+      <c r="D25" t="s">
         <v>274</v>
       </c>
-      <c r="D25" t="s">
+      <c r="E25" t="s">
         <v>275</v>
-      </c>
-      <c r="E25" t="s">
-        <v>276</v>
       </c>
       <c r="F25" t="s">
         <v>193</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H25" t="s">
         <v>31</v>
@@ -3161,10 +3162,10 @@
         <v>31</v>
       </c>
       <c r="J25" t="s">
+        <v>276</v>
+      </c>
+      <c r="K25" t="s">
         <v>277</v>
-      </c>
-      <c r="K25" t="s">
-        <v>278</v>
       </c>
       <c r="L25" t="s">
         <v>190</v>
@@ -3188,10 +3189,10 @@
         <v>192</v>
       </c>
       <c r="S25" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="T25" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="26" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3202,13 +3203,13 @@
         <v>143</v>
       </c>
       <c r="C26" t="s">
+        <v>279</v>
+      </c>
+      <c r="D26" t="s">
         <v>280</v>
       </c>
-      <c r="D26" t="s">
+      <c r="E26" t="s">
         <v>281</v>
-      </c>
-      <c r="E26" t="s">
-        <v>282</v>
       </c>
       <c r="F26" t="s">
         <v>189</v>
@@ -3226,7 +3227,7 @@
         <v>184</v>
       </c>
       <c r="K26" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="L26" t="s">
         <v>185</v>
@@ -3250,10 +3251,10 @@
         <v>188</v>
       </c>
       <c r="S26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="T26" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="27" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3261,19 +3262,19 @@
         <v>104</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C27" t="s">
         <v>285</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>286</v>
       </c>
-      <c r="D27" t="s">
+      <c r="E27" t="s">
         <v>287</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>288</v>
-      </c>
-      <c r="F27" t="s">
-        <v>289</v>
       </c>
       <c r="G27" t="s">
         <v>109</v>
@@ -3288,10 +3289,10 @@
         <v>48</v>
       </c>
       <c r="K27" t="s">
+        <v>289</v>
+      </c>
+      <c r="L27" t="s">
         <v>290</v>
-      </c>
-      <c r="L27" t="s">
-        <v>291</v>
       </c>
       <c r="M27" t="s">
         <v>109</v>
@@ -3309,13 +3310,13 @@
         <v>17</v>
       </c>
       <c r="R27" t="s">
+        <v>291</v>
+      </c>
+      <c r="S27" t="s">
         <v>292</v>
       </c>
-      <c r="S27" t="s">
-        <v>293</v>
-      </c>
       <c r="T27" s="4" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3326,16 +3327,16 @@
         <v>144</v>
       </c>
       <c r="C28" t="s">
+        <v>293</v>
+      </c>
+      <c r="D28" t="s">
         <v>294</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E28" t="s">
         <v>295</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>296</v>
-      </c>
-      <c r="F28" t="s">
-        <v>297</v>
       </c>
       <c r="G28" t="s">
         <v>109</v>
@@ -3347,13 +3348,13 @@
         <v>31</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K28" t="s">
+        <v>297</v>
+      </c>
+      <c r="L28" t="s">
         <v>298</v>
-      </c>
-      <c r="L28" t="s">
-        <v>299</v>
       </c>
       <c r="M28" t="s">
         <v>109</v>
@@ -3362,22 +3363,22 @@
         <v>17</v>
       </c>
       <c r="O28" t="s">
+        <v>299</v>
+      </c>
+      <c r="P28" t="s">
         <v>300</v>
       </c>
-      <c r="P28" t="s">
+      <c r="Q28" t="s">
         <v>301</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="R28" t="s">
         <v>302</v>
       </c>
-      <c r="R28" t="s">
+      <c r="S28" t="s">
         <v>303</v>
       </c>
-      <c r="S28" t="s">
-        <v>304</v>
-      </c>
       <c r="T28" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="29" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3391,7 +3392,7 @@
         <v>128</v>
       </c>
       <c r="D29" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E29" t="s">
         <v>129</v>
@@ -3409,13 +3410,13 @@
         <v>31</v>
       </c>
       <c r="J29" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K29" t="s">
         <v>17</v>
       </c>
       <c r="L29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="M29" t="s">
         <v>109</v>
@@ -3427,19 +3428,19 @@
         <v>182</v>
       </c>
       <c r="P29" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="Q29" t="s">
         <v>181</v>
       </c>
       <c r="R29" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="S29" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="T29" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3501,7 +3502,7 @@
         <v>137</v>
       </c>
       <c r="T30" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="31" spans="1:20" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -3557,10 +3558,10 @@
         <v>178</v>
       </c>
       <c r="S31" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="T31" s="4" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
